--- a/REGULAR/OJT/DE LUNA, ERNESTO E..xlsx
+++ b/REGULAR/OJT/DE LUNA, ERNESTO E..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8229E9DE-5840-43DA-8093-F4F63A7150DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3014666-2FA2-471E-8193-AEBF33F9C5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -181,12 +181,6 @@
     <t>2022</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
@@ -328,38 +322,22 @@
     <t>MAHOGANY MARKET</t>
   </si>
   <si>
-    <t>12/14-16/2022</t>
-  </si>
-  <si>
     <t>PERMANENT</t>
   </si>
   <si>
     <t xml:space="preserve"> *********************NOTHING FOLLOWS***********************</t>
   </si>
   <si>
-    <r>
-      <t>COMPULSORY RETIREMENT EFFECTIVE DATE: APRIL</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 01, 2023</t>
-    </r>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
   <si>
-    <t>TOTAL VL = 251.000</t>
+    <t>COMPULSORY RETIREMENT EFFECTIVE DATE: NOVEMBER 06, 2022</t>
   </si>
   <si>
-    <t>TOTAL SL = 261.000</t>
+    <t>TOTAL SL = 195.833</t>
   </si>
   <si>
-    <t>TOTAL LEAVE BALANCE</t>
+    <t>TOTAL VL = 215.833</t>
   </si>
 </sst>
 </file>
@@ -372,7 +350,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +393,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -604,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,6 +797,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2778,7 +2770,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2795,8 +2787,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K371" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K371" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K315" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K315" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3174,12 +3166,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K371"/>
+  <dimension ref="A2:K315"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane ySplit="2844" topLeftCell="A349" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3756" topLeftCell="A297" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="H360" sqref="H360"/>
+      <selection pane="bottomLeft" activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3241,14 +3233,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" s="65"/>
       <c r="H4" s="24" t="s">
@@ -3338,9 +3330,9 @@
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="13">
+      <c r="E9" s="72">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>251</v>
+        <v>215.83300000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3350,7 +3342,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>261</v>
+        <v>195.83300000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3400,7 +3392,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="50">
         <v>1.25</v>
@@ -3408,14 +3400,20 @@
       <c r="D12" s="19">
         <v>5</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <f>SUM(Table1[[#This Row],[EARNED]])-D12</f>
+        <v>-3.75</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9">
+        <f>SUM(Table1[[#This Row],[EARNED ]])</f>
+        <v>1.25</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
@@ -3426,14 +3424,20 @@
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <f>SUM(C13,E12)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>-3.75</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H13" s="37"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9">
+        <f>SUM(G13,I12)-H13</f>
+        <v>1.25</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
@@ -3446,14 +3450,20 @@
         <v>1.25</v>
       </c>
       <c r="D14" s="37"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <f>SUM(C14,E13)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>-2.5</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H14" s="37"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9">
+        <f t="shared" ref="I14:I77" si="0">SUM(G14,I13)-H14</f>
+        <v>2.5</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
@@ -3466,14 +3476,20 @@
         <v>1.25</v>
       </c>
       <c r="D15" s="37"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9">
+        <f>SUM(C15,E14)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>-1.25</v>
+      </c>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H15" s="37"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
@@ -3486,14 +3502,20 @@
         <v>1.25</v>
       </c>
       <c r="D16" s="40"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <f>SUM(C16,E15)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>0</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H16" s="40"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
@@ -3506,14 +3528,20 @@
         <v>1.25</v>
       </c>
       <c r="D17" s="37"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <f>SUM(C17,E16)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>1.25</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H17" s="37"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
@@ -3526,14 +3554,20 @@
         <v>1.25</v>
       </c>
       <c r="D18" s="37"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <f>SUM(C18,E17)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>2.5</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H18" s="37"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
@@ -3546,14 +3580,20 @@
         <v>1.25</v>
       </c>
       <c r="D19" s="37"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9">
+        <f>SUM(C19,E18)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>3.75</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H19" s="37"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
@@ -3566,14 +3606,20 @@
         <v>1.25</v>
       </c>
       <c r="D20" s="37"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <f>SUM(C20,E19)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>5</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H20" s="37"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
@@ -3586,14 +3632,20 @@
         <v>1.25</v>
       </c>
       <c r="D21" s="37"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <f>SUM(C21,E20)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>6.25</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H21" s="37"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
@@ -3606,14 +3658,20 @@
         <v>1.25</v>
       </c>
       <c r="D22" s="37"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <f>SUM(C22,E21)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>7.5</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H22" s="37"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
@@ -3626,14 +3684,20 @@
         <v>1.25</v>
       </c>
       <c r="D23" s="37"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9">
+        <f>SUM(C23,E22)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>8.75</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H23" s="37"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
@@ -3646,14 +3710,20 @@
         <v>1.25</v>
       </c>
       <c r="D24" s="37"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9">
+        <f>SUM(C24,E23)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>10</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H24" s="37"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
@@ -3662,7 +3732,7 @@
         <v>35765</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -3670,26 +3740,33 @@
       <c r="D25" s="37">
         <v>5</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9">
+        <f>SUM(C25,E24)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>6.25</v>
+      </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H25" s="37"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="32" t="s">
-        <v>32</v>
+      <c r="E26" s="9">
+        <f>SUM(C26,E25)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>6.25</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="13" t="str">
@@ -3697,8 +3774,9 @@
         <v/>
       </c>
       <c r="H26" s="37"/>
-      <c r="I26" s="32" t="s">
-        <v>32</v>
+      <c r="I26" s="9">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
@@ -3712,14 +3790,20 @@
         <v>1.25</v>
       </c>
       <c r="D27" s="37"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9">
+        <f>SUM(C27,E26)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>7.5</v>
+      </c>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H27" s="37"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
@@ -3732,14 +3816,20 @@
         <v>1.25</v>
       </c>
       <c r="D28" s="37"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9">
+        <f>SUM(C28,E27)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>8.75</v>
+      </c>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H28" s="37"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
@@ -3752,14 +3842,20 @@
         <v>1.25</v>
       </c>
       <c r="D29" s="37"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9">
+        <f>SUM(C29,E28)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>10</v>
+      </c>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H29" s="37"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
@@ -3772,14 +3868,20 @@
         <v>1.25</v>
       </c>
       <c r="D30" s="37"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9">
+        <f>SUM(C30,E29)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>11.25</v>
+      </c>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H30" s="37"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
@@ -3792,14 +3894,20 @@
         <v>1.25</v>
       </c>
       <c r="D31" s="37"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="9">
+        <f>SUM(C31,E30)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>12.5</v>
+      </c>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H31" s="37"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
@@ -3812,14 +3920,20 @@
         <v>1.25</v>
       </c>
       <c r="D32" s="37"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9">
+        <f>SUM(C32,E31)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>13.75</v>
+      </c>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H32" s="37"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9">
+        <f t="shared" si="0"/>
+        <v>23.75</v>
+      </c>
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
@@ -3832,14 +3946,20 @@
         <v>1.25</v>
       </c>
       <c r="D33" s="37"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9">
+        <f>SUM(C33,E32)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>15</v>
+      </c>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H33" s="37"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
@@ -3852,14 +3972,20 @@
         <v>1.25</v>
       </c>
       <c r="D34" s="37"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9">
+        <f>SUM(C34,E33)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>16.25</v>
+      </c>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H34" s="37"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9">
+        <f t="shared" si="0"/>
+        <v>26.25</v>
+      </c>
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
@@ -3872,14 +3998,20 @@
         <v>1.25</v>
       </c>
       <c r="D35" s="37"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9">
+        <f>SUM(C35,E34)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>17.5</v>
+      </c>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H35" s="37"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="9">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
@@ -3892,14 +4024,20 @@
         <v>1.25</v>
       </c>
       <c r="D36" s="37"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="9">
+        <f>SUM(C36,E35)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>18.75</v>
+      </c>
       <c r="F36" s="20"/>
       <c r="G36" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H36" s="37"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9">
+        <f t="shared" si="0"/>
+        <v>28.75</v>
+      </c>
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
@@ -3912,14 +4050,20 @@
         <v>1.25</v>
       </c>
       <c r="D37" s="37"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="9">
+        <f>SUM(C37,E36)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>20</v>
+      </c>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H37" s="37"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
@@ -3928,7 +4072,7 @@
         <v>36130</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
@@ -3936,26 +4080,33 @@
       <c r="D38" s="37">
         <v>5</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="9">
+        <f>SUM(C38,E37)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>16.25</v>
+      </c>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H38" s="37"/>
-      <c r="I38" s="9"/>
+      <c r="I38" s="9">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
       <c r="D39" s="37"/>
-      <c r="E39" s="32" t="s">
-        <v>32</v>
+      <c r="E39" s="9">
+        <f>SUM(C39,E38)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>16.25</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="13" t="str">
@@ -3963,8 +4114,9 @@
         <v/>
       </c>
       <c r="H39" s="37"/>
-      <c r="I39" s="32" t="s">
-        <v>32</v>
+      <c r="I39" s="9">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
@@ -3978,14 +4130,20 @@
         <v>1.25</v>
       </c>
       <c r="D40" s="37"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9">
+        <f>SUM(C40,E39)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>17.5</v>
+      </c>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H40" s="37"/>
-      <c r="I40" s="9"/>
+      <c r="I40" s="9">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
@@ -3998,14 +4156,20 @@
         <v>1.25</v>
       </c>
       <c r="D41" s="37"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9">
+        <f>SUM(C41,E40)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>18.75</v>
+      </c>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H41" s="37"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="9">
+        <f t="shared" si="0"/>
+        <v>33.75</v>
+      </c>
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
@@ -4018,14 +4182,20 @@
         <v>1.25</v>
       </c>
       <c r="D42" s="37"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9">
+        <f>SUM(C42,E41)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>20</v>
+      </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H42" s="37"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
@@ -4038,14 +4208,20 @@
         <v>1.25</v>
       </c>
       <c r="D43" s="37"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="9">
+        <f>SUM(C43,E42)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>21.25</v>
+      </c>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H43" s="37"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="9">
+        <f t="shared" si="0"/>
+        <v>36.25</v>
+      </c>
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
@@ -4058,14 +4234,20 @@
         <v>1.25</v>
       </c>
       <c r="D44" s="37"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="9">
+        <f>SUM(C44,E43)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>22.5</v>
+      </c>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H44" s="37"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="9">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
@@ -4074,7 +4256,7 @@
         <v>36312</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -4082,17 +4264,23 @@
       <c r="D45" s="37">
         <v>3</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="9">
+        <f>SUM(C45,E44)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>20.75</v>
+      </c>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H45" s="37"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="9">
+        <f t="shared" si="0"/>
+        <v>38.75</v>
+      </c>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -4104,14 +4292,20 @@
         <v>1.25</v>
       </c>
       <c r="D46" s="37"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="9">
+        <f>SUM(C46,E45)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>22</v>
+      </c>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H46" s="37"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
@@ -4124,14 +4318,20 @@
         <v>1.25</v>
       </c>
       <c r="D47" s="37"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="9">
+        <f>SUM(C47,E46)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>23.25</v>
+      </c>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H47" s="37"/>
-      <c r="I47" s="9"/>
+      <c r="I47" s="9">
+        <f t="shared" si="0"/>
+        <v>41.25</v>
+      </c>
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
@@ -4144,14 +4344,20 @@
         <v>1.25</v>
       </c>
       <c r="D48" s="37"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="9">
+        <f>SUM(C48,E47)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>24.5</v>
+      </c>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H48" s="37"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="9">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
@@ -4164,14 +4370,20 @@
         <v>1.25</v>
       </c>
       <c r="D49" s="37"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9">
+        <f>SUM(C49,E48)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>25.75</v>
+      </c>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H49" s="37"/>
-      <c r="I49" s="9"/>
+      <c r="I49" s="9">
+        <f t="shared" si="0"/>
+        <v>43.75</v>
+      </c>
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
@@ -4184,14 +4396,20 @@
         <v>1.25</v>
       </c>
       <c r="D50" s="37"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="9">
+        <f>SUM(C50,E49)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>27</v>
+      </c>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H50" s="37"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
@@ -4200,7 +4418,7 @@
         <v>36495</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" s="13">
         <v>1.25</v>
@@ -4208,26 +4426,33 @@
       <c r="D51" s="37">
         <v>2</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="9">
+        <f>SUM(C51,E50)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>26.25</v>
+      </c>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H51" s="37"/>
-      <c r="I51" s="9"/>
+      <c r="I51" s="9">
+        <f t="shared" si="0"/>
+        <v>46.25</v>
+      </c>
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
       <c r="D52" s="37"/>
-      <c r="E52" s="32" t="s">
-        <v>32</v>
+      <c r="E52" s="9">
+        <f>SUM(C52,E51)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>26.25</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="13" t="str">
@@ -4235,8 +4460,9 @@
         <v/>
       </c>
       <c r="H52" s="37"/>
-      <c r="I52" s="32" t="s">
-        <v>32</v>
+      <c r="I52" s="9">
+        <f t="shared" si="0"/>
+        <v>46.25</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
@@ -4250,14 +4476,20 @@
         <v>1.25</v>
       </c>
       <c r="D53" s="37"/>
-      <c r="E53" s="9"/>
+      <c r="E53" s="9">
+        <f>SUM(C53,E52)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>27.5</v>
+      </c>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H53" s="37"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="9">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
@@ -4270,14 +4502,20 @@
         <v>1.25</v>
       </c>
       <c r="D54" s="37"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="9">
+        <f>SUM(C54,E53)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>28.75</v>
+      </c>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H54" s="37"/>
-      <c r="I54" s="9"/>
+      <c r="I54" s="9">
+        <f t="shared" si="0"/>
+        <v>48.75</v>
+      </c>
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
@@ -4290,14 +4528,20 @@
         <v>1.25</v>
       </c>
       <c r="D55" s="37"/>
-      <c r="E55" s="9"/>
+      <c r="E55" s="9">
+        <f>SUM(C55,E54)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>30</v>
+      </c>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H55" s="37"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
@@ -4310,14 +4554,20 @@
         <v>1.25</v>
       </c>
       <c r="D56" s="37"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="9">
+        <f>SUM(C56,E55)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>31.25</v>
+      </c>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H56" s="37"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="9">
+        <f t="shared" si="0"/>
+        <v>51.25</v>
+      </c>
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
@@ -4330,14 +4580,20 @@
         <v>1.25</v>
       </c>
       <c r="D57" s="37"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="9">
+        <f>SUM(C57,E56)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>32.5</v>
+      </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H57" s="37"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="9">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
@@ -4350,14 +4606,20 @@
         <v>1.25</v>
       </c>
       <c r="D58" s="37"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="9">
+        <f>SUM(C58,E57)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>33.75</v>
+      </c>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H58" s="37"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="9">
+        <f t="shared" si="0"/>
+        <v>53.75</v>
+      </c>
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
@@ -4370,14 +4632,20 @@
         <v>1.25</v>
       </c>
       <c r="D59" s="37"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="9">
+        <f>SUM(C59,E58)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>35</v>
+      </c>
       <c r="F59" s="20"/>
       <c r="G59" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H59" s="37"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="9">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
@@ -4390,14 +4658,20 @@
         <v>1.25</v>
       </c>
       <c r="D60" s="37"/>
-      <c r="E60" s="9"/>
+      <c r="E60" s="9">
+        <f>SUM(C60,E59)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>36.25</v>
+      </c>
       <c r="F60" s="20"/>
       <c r="G60" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H60" s="37"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="9">
+        <f t="shared" si="0"/>
+        <v>56.25</v>
+      </c>
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
@@ -4410,14 +4684,20 @@
         <v>1.25</v>
       </c>
       <c r="D61" s="37"/>
-      <c r="E61" s="9"/>
+      <c r="E61" s="9">
+        <f>SUM(C61,E60)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>37.5</v>
+      </c>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H61" s="37"/>
-      <c r="I61" s="9"/>
+      <c r="I61" s="9">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
@@ -4430,14 +4710,20 @@
         <v>1.25</v>
       </c>
       <c r="D62" s="37"/>
-      <c r="E62" s="9"/>
+      <c r="E62" s="9">
+        <f>SUM(C62,E61)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>38.75</v>
+      </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H62" s="37"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="9">
+        <f t="shared" si="0"/>
+        <v>58.75</v>
+      </c>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
@@ -4450,14 +4736,20 @@
         <v>1.25</v>
       </c>
       <c r="D63" s="37"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="9">
+        <f>SUM(C63,E62)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>40</v>
+      </c>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H63" s="37"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="9">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
@@ -4466,7 +4758,7 @@
         <v>36861</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C64" s="13">
         <v>1.25</v>
@@ -4474,26 +4766,33 @@
       <c r="D64" s="37">
         <v>5</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="9">
+        <f>SUM(C64,E63)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>36.25</v>
+      </c>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H64" s="37"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="9">
+        <f t="shared" si="0"/>
+        <v>61.25</v>
+      </c>
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
       <c r="D65" s="37"/>
-      <c r="E65" s="32" t="s">
-        <v>32</v>
+      <c r="E65" s="9">
+        <f>SUM(C65,E64)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>36.25</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="13" t="str">
@@ -4501,8 +4800,9 @@
         <v/>
       </c>
       <c r="H65" s="37"/>
-      <c r="I65" s="32" t="s">
-        <v>32</v>
+      <c r="I65" s="9">
+        <f t="shared" si="0"/>
+        <v>61.25</v>
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
@@ -4516,14 +4816,20 @@
         <v>1.25</v>
       </c>
       <c r="D66" s="37"/>
-      <c r="E66" s="9"/>
+      <c r="E66" s="9">
+        <f>SUM(C66,E65)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>37.5</v>
+      </c>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H66" s="37"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="9">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
@@ -4536,14 +4842,20 @@
         <v>1.25</v>
       </c>
       <c r="D67" s="37"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="9">
+        <f>SUM(C67,E66)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>38.75</v>
+      </c>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H67" s="37"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="9">
+        <f t="shared" si="0"/>
+        <v>63.75</v>
+      </c>
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
@@ -4556,14 +4868,20 @@
         <v>1.25</v>
       </c>
       <c r="D68" s="37"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="9">
+        <f>SUM(C68,E67)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>40</v>
+      </c>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H68" s="37"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="9">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
@@ -4576,14 +4894,20 @@
         <v>1.25</v>
       </c>
       <c r="D69" s="37"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="9">
+        <f>SUM(C69,E68)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>41.25</v>
+      </c>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H69" s="37"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="9">
+        <f t="shared" si="0"/>
+        <v>66.25</v>
+      </c>
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
@@ -4596,14 +4920,20 @@
         <v>1.25</v>
       </c>
       <c r="D70" s="37"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="9">
+        <f>SUM(C70,E69)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>42.5</v>
+      </c>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H70" s="37"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="9">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
@@ -4616,14 +4946,20 @@
         <v>1.25</v>
       </c>
       <c r="D71" s="37"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="9">
+        <f>SUM(C71,E70)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>43.75</v>
+      </c>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H71" s="37"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="9">
+        <f t="shared" si="0"/>
+        <v>68.75</v>
+      </c>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
@@ -4636,14 +4972,20 @@
         <v>1.25</v>
       </c>
       <c r="D72" s="37"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="9">
+        <f>SUM(C72,E71)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>45</v>
+      </c>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H72" s="37"/>
-      <c r="I72" s="9"/>
+      <c r="I72" s="9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
@@ -4656,14 +4998,20 @@
         <v>1.25</v>
       </c>
       <c r="D73" s="37"/>
-      <c r="E73" s="9"/>
+      <c r="E73" s="9">
+        <f>SUM(C73,E72)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>46.25</v>
+      </c>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H73" s="37"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="9">
+        <f t="shared" si="0"/>
+        <v>71.25</v>
+      </c>
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
@@ -4676,14 +5024,20 @@
         <v>1.25</v>
       </c>
       <c r="D74" s="37"/>
-      <c r="E74" s="9"/>
+      <c r="E74" s="9">
+        <f>SUM(C74,E73)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>47.5</v>
+      </c>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H74" s="37"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="9">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
@@ -4696,14 +5050,20 @@
         <v>1.25</v>
       </c>
       <c r="D75" s="37"/>
-      <c r="E75" s="9"/>
+      <c r="E75" s="9">
+        <f>SUM(C75,E74)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>48.75</v>
+      </c>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H75" s="37"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="9">
+        <f t="shared" si="0"/>
+        <v>73.75</v>
+      </c>
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
@@ -4716,14 +5076,20 @@
         <v>1.25</v>
       </c>
       <c r="D76" s="37"/>
-      <c r="E76" s="9"/>
+      <c r="E76" s="9">
+        <f>SUM(C76,E75)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>50</v>
+      </c>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H76" s="37"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="9">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
@@ -4732,7 +5098,7 @@
         <v>37226</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -4740,26 +5106,33 @@
       <c r="D77" s="37">
         <v>5</v>
       </c>
-      <c r="E77" s="9"/>
+      <c r="E77" s="9">
+        <f>SUM(C77,E76)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>46.25</v>
+      </c>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H77" s="37"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="9">
+        <f t="shared" si="0"/>
+        <v>76.25</v>
+      </c>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="37"/>
-      <c r="E78" s="32" t="s">
-        <v>32</v>
+      <c r="E78" s="9">
+        <f>SUM(C78,E77)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>46.25</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="13" t="str">
@@ -4767,8 +5140,9 @@
         <v/>
       </c>
       <c r="H78" s="37"/>
-      <c r="I78" s="32" t="s">
-        <v>32</v>
+      <c r="I78" s="9">
+        <f t="shared" ref="I78:I141" si="1">SUM(G78,I77)-H78</f>
+        <v>76.25</v>
       </c>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
@@ -4782,14 +5156,20 @@
         <v>1.25</v>
       </c>
       <c r="D79" s="37"/>
-      <c r="E79" s="9"/>
+      <c r="E79" s="9">
+        <f>SUM(C79,E78)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>47.5</v>
+      </c>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H79" s="37"/>
-      <c r="I79" s="9"/>
+      <c r="I79" s="9">
+        <f t="shared" si="1"/>
+        <v>77.5</v>
+      </c>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
@@ -4798,7 +5178,7 @@
         <v>37288</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -4806,17 +5186,23 @@
       <c r="D80" s="37">
         <v>2</v>
       </c>
-      <c r="E80" s="9"/>
+      <c r="E80" s="9">
+        <f>SUM(C80,E79)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>46.75</v>
+      </c>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H80" s="37"/>
-      <c r="I80" s="9"/>
+      <c r="I80" s="9">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4828,14 +5214,20 @@
         <v>1.25</v>
       </c>
       <c r="D81" s="37"/>
-      <c r="E81" s="9"/>
+      <c r="E81" s="9">
+        <f>SUM(C81,E80)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>48</v>
+      </c>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H81" s="37"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="9">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
@@ -4848,14 +5240,20 @@
         <v>1.25</v>
       </c>
       <c r="D82" s="37"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="9">
+        <f>SUM(C82,E81)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>49.25</v>
+      </c>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H82" s="37"/>
-      <c r="I82" s="9"/>
+      <c r="I82" s="9">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
@@ -4868,14 +5266,20 @@
         <v>1.25</v>
       </c>
       <c r="D83" s="37"/>
-      <c r="E83" s="9"/>
+      <c r="E83" s="9">
+        <f>SUM(C83,E82)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>50.5</v>
+      </c>
       <c r="F83" s="20"/>
       <c r="G83" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H83" s="37"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="9">
+        <f t="shared" si="1"/>
+        <v>82.5</v>
+      </c>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
@@ -4888,14 +5292,20 @@
         <v>1.25</v>
       </c>
       <c r="D84" s="37"/>
-      <c r="E84" s="9"/>
+      <c r="E84" s="9">
+        <f>SUM(C84,E83)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>51.75</v>
+      </c>
       <c r="F84" s="20"/>
       <c r="G84" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H84" s="37"/>
-      <c r="I84" s="9"/>
+      <c r="I84" s="9">
+        <f t="shared" si="1"/>
+        <v>83.75</v>
+      </c>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
@@ -4908,14 +5318,20 @@
         <v>1.25</v>
       </c>
       <c r="D85" s="37"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="9">
+        <f>SUM(C85,E84)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>53</v>
+      </c>
       <c r="F85" s="20"/>
       <c r="G85" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H85" s="37"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="9">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
@@ -4928,14 +5344,20 @@
         <v>1.25</v>
       </c>
       <c r="D86" s="37"/>
-      <c r="E86" s="9"/>
+      <c r="E86" s="9">
+        <f>SUM(C86,E85)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>54.25</v>
+      </c>
       <c r="F86" s="20"/>
       <c r="G86" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H86" s="37"/>
-      <c r="I86" s="9"/>
+      <c r="I86" s="9">
+        <f t="shared" si="1"/>
+        <v>86.25</v>
+      </c>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
@@ -4948,14 +5370,20 @@
         <v>1.25</v>
       </c>
       <c r="D87" s="37"/>
-      <c r="E87" s="9"/>
+      <c r="E87" s="9">
+        <f>SUM(C87,E86)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>55.5</v>
+      </c>
       <c r="F87" s="20"/>
       <c r="G87" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H87" s="37"/>
-      <c r="I87" s="9"/>
+      <c r="I87" s="9">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
@@ -4968,14 +5396,20 @@
         <v>1.25</v>
       </c>
       <c r="D88" s="37"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="9">
+        <f>SUM(C88,E87)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>56.75</v>
+      </c>
       <c r="F88" s="20"/>
       <c r="G88" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H88" s="37"/>
-      <c r="I88" s="9"/>
+      <c r="I88" s="9">
+        <f t="shared" si="1"/>
+        <v>88.75</v>
+      </c>
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
@@ -4988,14 +5422,20 @@
         <v>1.25</v>
       </c>
       <c r="D89" s="37"/>
-      <c r="E89" s="9"/>
+      <c r="E89" s="9">
+        <f>SUM(C89,E88)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>58</v>
+      </c>
       <c r="F89" s="20"/>
       <c r="G89" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H89" s="37"/>
-      <c r="I89" s="9"/>
+      <c r="I89" s="9">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
@@ -5004,7 +5444,7 @@
         <v>37591</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -5012,26 +5452,33 @@
       <c r="D90" s="37">
         <v>3</v>
       </c>
-      <c r="E90" s="9"/>
+      <c r="E90" s="9">
+        <f>SUM(C90,E89)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>56.25</v>
+      </c>
       <c r="F90" s="20"/>
       <c r="G90" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H90" s="37"/>
-      <c r="I90" s="9"/>
+      <c r="I90" s="9">
+        <f t="shared" si="1"/>
+        <v>91.25</v>
+      </c>
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="37"/>
-      <c r="E91" s="32" t="s">
-        <v>32</v>
+      <c r="E91" s="9">
+        <f>SUM(C91,E90)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>56.25</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
@@ -5039,8 +5486,9 @@
         <v/>
       </c>
       <c r="H91" s="37"/>
-      <c r="I91" s="32" t="s">
-        <v>32</v>
+      <c r="I91" s="9">
+        <f t="shared" si="1"/>
+        <v>91.25</v>
       </c>
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
@@ -5054,14 +5502,20 @@
         <v>1.25</v>
       </c>
       <c r="D92" s="37"/>
-      <c r="E92" s="9"/>
+      <c r="E92" s="9">
+        <f>SUM(C92,E91)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>57.5</v>
+      </c>
       <c r="F92" s="20"/>
       <c r="G92" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H92" s="37"/>
-      <c r="I92" s="9"/>
+      <c r="I92" s="9">
+        <f t="shared" si="1"/>
+        <v>92.5</v>
+      </c>
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
@@ -5074,14 +5528,20 @@
         <v>1.25</v>
       </c>
       <c r="D93" s="37"/>
-      <c r="E93" s="9"/>
+      <c r="E93" s="9">
+        <f>SUM(C93,E92)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>58.75</v>
+      </c>
       <c r="F93" s="20"/>
       <c r="G93" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H93" s="37"/>
-      <c r="I93" s="9"/>
+      <c r="I93" s="9">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
@@ -5094,14 +5554,20 @@
         <v>1.25</v>
       </c>
       <c r="D94" s="37"/>
-      <c r="E94" s="9"/>
+      <c r="E94" s="9">
+        <f>SUM(C94,E93)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>60</v>
+      </c>
       <c r="F94" s="20"/>
       <c r="G94" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H94" s="37"/>
-      <c r="I94" s="9"/>
+      <c r="I94" s="9">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
@@ -5114,14 +5580,20 @@
         <v>1.25</v>
       </c>
       <c r="D95" s="37"/>
-      <c r="E95" s="9"/>
+      <c r="E95" s="9">
+        <f>SUM(C95,E94)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>61.25</v>
+      </c>
       <c r="F95" s="20"/>
       <c r="G95" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H95" s="37"/>
-      <c r="I95" s="9"/>
+      <c r="I95" s="9">
+        <f t="shared" si="1"/>
+        <v>96.25</v>
+      </c>
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
@@ -5134,14 +5606,20 @@
         <v>1.25</v>
       </c>
       <c r="D96" s="37"/>
-      <c r="E96" s="9"/>
+      <c r="E96" s="9">
+        <f>SUM(C96,E95)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>62.5</v>
+      </c>
       <c r="F96" s="20"/>
       <c r="G96" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H96" s="37"/>
-      <c r="I96" s="9"/>
+      <c r="I96" s="9">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
@@ -5154,14 +5632,20 @@
         <v>1.25</v>
       </c>
       <c r="D97" s="37"/>
-      <c r="E97" s="9"/>
+      <c r="E97" s="9">
+        <f>SUM(C97,E96)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>63.75</v>
+      </c>
       <c r="F97" s="20"/>
       <c r="G97" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H97" s="37"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="9">
+        <f t="shared" si="1"/>
+        <v>98.75</v>
+      </c>
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
@@ -5174,14 +5658,20 @@
         <v>1.25</v>
       </c>
       <c r="D98" s="37"/>
-      <c r="E98" s="9"/>
+      <c r="E98" s="9">
+        <f>SUM(C98,E97)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>65</v>
+      </c>
       <c r="F98" s="20"/>
       <c r="G98" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H98" s="37"/>
-      <c r="I98" s="9"/>
+      <c r="I98" s="9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
@@ -5194,14 +5684,20 @@
         <v>1.25</v>
       </c>
       <c r="D99" s="37"/>
-      <c r="E99" s="9"/>
+      <c r="E99" s="9">
+        <f>SUM(C99,E98)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>66.25</v>
+      </c>
       <c r="F99" s="20"/>
       <c r="G99" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H99" s="37"/>
-      <c r="I99" s="9"/>
+      <c r="I99" s="9">
+        <f t="shared" si="1"/>
+        <v>101.25</v>
+      </c>
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
@@ -5214,14 +5710,20 @@
         <v>1.25</v>
       </c>
       <c r="D100" s="37"/>
-      <c r="E100" s="9"/>
+      <c r="E100" s="9">
+        <f>SUM(C100,E99)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>67.5</v>
+      </c>
       <c r="F100" s="20"/>
       <c r="G100" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H100" s="37"/>
-      <c r="I100" s="9"/>
+      <c r="I100" s="9">
+        <f t="shared" si="1"/>
+        <v>102.5</v>
+      </c>
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
@@ -5234,14 +5736,20 @@
         <v>1.25</v>
       </c>
       <c r="D101" s="37"/>
-      <c r="E101" s="9"/>
+      <c r="E101" s="9">
+        <f>SUM(C101,E100)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>68.75</v>
+      </c>
       <c r="F101" s="20"/>
       <c r="G101" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H101" s="37"/>
-      <c r="I101" s="9"/>
+      <c r="I101" s="9">
+        <f t="shared" si="1"/>
+        <v>103.75</v>
+      </c>
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
@@ -5254,14 +5762,20 @@
         <v>1.25</v>
       </c>
       <c r="D102" s="37"/>
-      <c r="E102" s="9"/>
+      <c r="E102" s="9">
+        <f>SUM(C102,E101)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>70</v>
+      </c>
       <c r="F102" s="20"/>
       <c r="G102" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H102" s="37"/>
-      <c r="I102" s="9"/>
+      <c r="I102" s="9">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
@@ -5270,7 +5784,7 @@
         <v>37956</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C103" s="13">
         <v>1.25</v>
@@ -5278,26 +5792,33 @@
       <c r="D103" s="37">
         <v>5</v>
       </c>
-      <c r="E103" s="9"/>
+      <c r="E103" s="9">
+        <f>SUM(C103,E102)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>66.25</v>
+      </c>
       <c r="F103" s="20"/>
       <c r="G103" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H103" s="37"/>
-      <c r="I103" s="9"/>
+      <c r="I103" s="9">
+        <f t="shared" si="1"/>
+        <v>106.25</v>
+      </c>
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="37"/>
-      <c r="E104" s="32" t="s">
-        <v>32</v>
+      <c r="E104" s="9">
+        <f>SUM(C104,E103)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>66.25</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="13" t="str">
@@ -5305,8 +5826,9 @@
         <v/>
       </c>
       <c r="H104" s="37"/>
-      <c r="I104" s="32" t="s">
-        <v>32</v>
+      <c r="I104" s="9">
+        <f t="shared" si="1"/>
+        <v>106.25</v>
       </c>
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
@@ -5320,14 +5842,20 @@
         <v>1.25</v>
       </c>
       <c r="D105" s="37"/>
-      <c r="E105" s="9"/>
+      <c r="E105" s="9">
+        <f>SUM(C105,E104)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>67.5</v>
+      </c>
       <c r="F105" s="20"/>
       <c r="G105" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H105" s="37"/>
-      <c r="I105" s="9"/>
+      <c r="I105" s="9">
+        <f t="shared" si="1"/>
+        <v>107.5</v>
+      </c>
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
@@ -5340,14 +5868,20 @@
         <v>1.25</v>
       </c>
       <c r="D106" s="37"/>
-      <c r="E106" s="9"/>
+      <c r="E106" s="9">
+        <f>SUM(C106,E105)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>68.75</v>
+      </c>
       <c r="F106" s="20"/>
       <c r="G106" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H106" s="37"/>
-      <c r="I106" s="9"/>
+      <c r="I106" s="9">
+        <f t="shared" si="1"/>
+        <v>108.75</v>
+      </c>
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
@@ -5360,14 +5894,20 @@
         <v>1.25</v>
       </c>
       <c r="D107" s="37"/>
-      <c r="E107" s="9"/>
+      <c r="E107" s="9">
+        <f>SUM(C107,E106)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>70</v>
+      </c>
       <c r="F107" s="20"/>
       <c r="G107" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H107" s="37"/>
-      <c r="I107" s="9"/>
+      <c r="I107" s="9">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
@@ -5380,14 +5920,20 @@
         <v>1.25</v>
       </c>
       <c r="D108" s="37"/>
-      <c r="E108" s="9"/>
+      <c r="E108" s="9">
+        <f>SUM(C108,E107)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>71.25</v>
+      </c>
       <c r="F108" s="20"/>
       <c r="G108" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H108" s="37"/>
-      <c r="I108" s="9"/>
+      <c r="I108" s="9">
+        <f t="shared" si="1"/>
+        <v>111.25</v>
+      </c>
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
@@ -5400,14 +5946,20 @@
         <v>1.25</v>
       </c>
       <c r="D109" s="37"/>
-      <c r="E109" s="9"/>
+      <c r="E109" s="9">
+        <f>SUM(C109,E108)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>72.5</v>
+      </c>
       <c r="F109" s="20"/>
       <c r="G109" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H109" s="37"/>
-      <c r="I109" s="9"/>
+      <c r="I109" s="9">
+        <f t="shared" si="1"/>
+        <v>112.5</v>
+      </c>
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
@@ -5420,14 +5972,20 @@
         <v>1.25</v>
       </c>
       <c r="D110" s="37"/>
-      <c r="E110" s="9"/>
+      <c r="E110" s="9">
+        <f>SUM(C110,E109)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>73.75</v>
+      </c>
       <c r="F110" s="20"/>
       <c r="G110" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H110" s="37"/>
-      <c r="I110" s="9"/>
+      <c r="I110" s="9">
+        <f t="shared" si="1"/>
+        <v>113.75</v>
+      </c>
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
@@ -5440,14 +5998,20 @@
         <v>1.25</v>
       </c>
       <c r="D111" s="37"/>
-      <c r="E111" s="9"/>
+      <c r="E111" s="9">
+        <f>SUM(C111,E110)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>75</v>
+      </c>
       <c r="F111" s="20"/>
       <c r="G111" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H111" s="37"/>
-      <c r="I111" s="9"/>
+      <c r="I111" s="9">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
@@ -5460,14 +6024,20 @@
         <v>1.25</v>
       </c>
       <c r="D112" s="37"/>
-      <c r="E112" s="9"/>
+      <c r="E112" s="9">
+        <f>SUM(C112,E111)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>76.25</v>
+      </c>
       <c r="F112" s="20"/>
       <c r="G112" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H112" s="37"/>
-      <c r="I112" s="9"/>
+      <c r="I112" s="9">
+        <f t="shared" si="1"/>
+        <v>116.25</v>
+      </c>
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
@@ -5480,14 +6050,20 @@
         <v>1.25</v>
       </c>
       <c r="D113" s="37"/>
-      <c r="E113" s="9"/>
+      <c r="E113" s="9">
+        <f>SUM(C113,E112)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>77.5</v>
+      </c>
       <c r="F113" s="20"/>
       <c r="G113" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H113" s="37"/>
-      <c r="I113" s="9"/>
+      <c r="I113" s="9">
+        <f t="shared" si="1"/>
+        <v>117.5</v>
+      </c>
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
@@ -5500,14 +6076,20 @@
         <v>1.25</v>
       </c>
       <c r="D114" s="37"/>
-      <c r="E114" s="9"/>
+      <c r="E114" s="9">
+        <f>SUM(C114,E113)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>78.75</v>
+      </c>
       <c r="F114" s="20"/>
       <c r="G114" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H114" s="37"/>
-      <c r="I114" s="9"/>
+      <c r="I114" s="9">
+        <f t="shared" si="1"/>
+        <v>118.75</v>
+      </c>
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
@@ -5520,14 +6102,20 @@
         <v>1.25</v>
       </c>
       <c r="D115" s="37"/>
-      <c r="E115" s="9"/>
+      <c r="E115" s="9">
+        <f>SUM(C115,E114)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>80</v>
+      </c>
       <c r="F115" s="20"/>
       <c r="G115" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H115" s="37"/>
-      <c r="I115" s="9"/>
+      <c r="I115" s="9">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
@@ -5536,7 +6124,7 @@
         <v>38322</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
@@ -5544,26 +6132,33 @@
       <c r="D116" s="37">
         <v>5</v>
       </c>
-      <c r="E116" s="9"/>
+      <c r="E116" s="9">
+        <f>SUM(C116,E115)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>76.25</v>
+      </c>
       <c r="F116" s="20"/>
       <c r="G116" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H116" s="37"/>
-      <c r="I116" s="9"/>
+      <c r="I116" s="9">
+        <f t="shared" si="1"/>
+        <v>121.25</v>
+      </c>
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="37"/>
-      <c r="E117" s="32" t="s">
-        <v>32</v>
+      <c r="E117" s="9">
+        <f>SUM(C117,E116)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>76.25</v>
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="13" t="str">
@@ -5571,8 +6166,9 @@
         <v/>
       </c>
       <c r="H117" s="37"/>
-      <c r="I117" s="32" t="s">
-        <v>32</v>
+      <c r="I117" s="9">
+        <f t="shared" si="1"/>
+        <v>121.25</v>
       </c>
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
@@ -5586,14 +6182,20 @@
         <v>1.25</v>
       </c>
       <c r="D118" s="37"/>
-      <c r="E118" s="9"/>
+      <c r="E118" s="9">
+        <f>SUM(C118,E117)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>77.5</v>
+      </c>
       <c r="F118" s="20"/>
       <c r="G118" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H118" s="37"/>
-      <c r="I118" s="9"/>
+      <c r="I118" s="9">
+        <f t="shared" si="1"/>
+        <v>122.5</v>
+      </c>
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
@@ -5606,14 +6208,20 @@
         <v>1.25</v>
       </c>
       <c r="D119" s="37"/>
-      <c r="E119" s="9"/>
+      <c r="E119" s="9">
+        <f>SUM(C119,E118)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>78.75</v>
+      </c>
       <c r="F119" s="20"/>
       <c r="G119" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H119" s="37"/>
-      <c r="I119" s="9"/>
+      <c r="I119" s="9">
+        <f t="shared" si="1"/>
+        <v>123.75</v>
+      </c>
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
@@ -5626,14 +6234,20 @@
         <v>1.25</v>
       </c>
       <c r="D120" s="37"/>
-      <c r="E120" s="9"/>
+      <c r="E120" s="9">
+        <f>SUM(C120,E119)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>80</v>
+      </c>
       <c r="F120" s="20"/>
       <c r="G120" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H120" s="37"/>
-      <c r="I120" s="9"/>
+      <c r="I120" s="9">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
@@ -5646,14 +6260,20 @@
         <v>1.25</v>
       </c>
       <c r="D121" s="37"/>
-      <c r="E121" s="9"/>
+      <c r="E121" s="9">
+        <f>SUM(C121,E120)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>81.25</v>
+      </c>
       <c r="F121" s="20"/>
       <c r="G121" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H121" s="37"/>
-      <c r="I121" s="9"/>
+      <c r="I121" s="9">
+        <f t="shared" si="1"/>
+        <v>126.25</v>
+      </c>
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
@@ -5666,14 +6286,20 @@
         <v>1.25</v>
       </c>
       <c r="D122" s="37"/>
-      <c r="E122" s="9"/>
+      <c r="E122" s="9">
+        <f>SUM(C122,E121)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>82.5</v>
+      </c>
       <c r="F122" s="20"/>
       <c r="G122" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H122" s="37"/>
-      <c r="I122" s="9"/>
+      <c r="I122" s="9">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
@@ -5686,14 +6312,20 @@
         <v>1.25</v>
       </c>
       <c r="D123" s="37"/>
-      <c r="E123" s="9"/>
+      <c r="E123" s="9">
+        <f>SUM(C123,E122)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>83.75</v>
+      </c>
       <c r="F123" s="20"/>
       <c r="G123" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H123" s="37"/>
-      <c r="I123" s="9"/>
+      <c r="I123" s="9">
+        <f t="shared" si="1"/>
+        <v>128.75</v>
+      </c>
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
@@ -5706,14 +6338,20 @@
         <v>1.25</v>
       </c>
       <c r="D124" s="37"/>
-      <c r="E124" s="9"/>
+      <c r="E124" s="9">
+        <f>SUM(C124,E123)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>85</v>
+      </c>
       <c r="F124" s="20"/>
       <c r="G124" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H124" s="37"/>
-      <c r="I124" s="9"/>
+      <c r="I124" s="9">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
@@ -5726,14 +6364,20 @@
         <v>1.25</v>
       </c>
       <c r="D125" s="37"/>
-      <c r="E125" s="9"/>
+      <c r="E125" s="9">
+        <f>SUM(C125,E124)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>86.25</v>
+      </c>
       <c r="F125" s="20"/>
       <c r="G125" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H125" s="37"/>
-      <c r="I125" s="9"/>
+      <c r="I125" s="9">
+        <f t="shared" si="1"/>
+        <v>131.25</v>
+      </c>
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
@@ -5746,14 +6390,20 @@
         <v>1.25</v>
       </c>
       <c r="D126" s="37"/>
-      <c r="E126" s="9"/>
+      <c r="E126" s="9">
+        <f>SUM(C126,E125)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>87.5</v>
+      </c>
       <c r="F126" s="20"/>
       <c r="G126" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H126" s="37"/>
-      <c r="I126" s="9"/>
+      <c r="I126" s="9">
+        <f t="shared" si="1"/>
+        <v>132.5</v>
+      </c>
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
@@ -5766,14 +6416,20 @@
         <v>1.25</v>
       </c>
       <c r="D127" s="37"/>
-      <c r="E127" s="9"/>
+      <c r="E127" s="9">
+        <f>SUM(C127,E126)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>88.75</v>
+      </c>
       <c r="F127" s="20"/>
       <c r="G127" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H127" s="37"/>
-      <c r="I127" s="9"/>
+      <c r="I127" s="9">
+        <f t="shared" si="1"/>
+        <v>133.75</v>
+      </c>
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
@@ -5786,14 +6442,20 @@
         <v>1.25</v>
       </c>
       <c r="D128" s="37"/>
-      <c r="E128" s="9"/>
+      <c r="E128" s="9">
+        <f>SUM(C128,E127)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>90</v>
+      </c>
       <c r="F128" s="20"/>
       <c r="G128" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H128" s="37"/>
-      <c r="I128" s="9"/>
+      <c r="I128" s="9">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
@@ -5802,7 +6464,7 @@
         <v>38687</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C129" s="13">
         <v>1.25</v>
@@ -5810,32 +6472,40 @@
       <c r="D129" s="37">
         <v>5</v>
       </c>
-      <c r="E129" s="9"/>
+      <c r="E129" s="9">
+        <f>SUM(C129,E128)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>86.25</v>
+      </c>
       <c r="F129" s="20"/>
       <c r="G129" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H129" s="37"/>
-      <c r="I129" s="9"/>
+      <c r="I129" s="9">
+        <f t="shared" si="1"/>
+        <v>136.25</v>
+      </c>
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="37"/>
-      <c r="E130" s="32" t="s">
-        <v>32</v>
+      <c r="E130" s="9">
+        <f>SUM(C130,E129)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>86.25</v>
       </c>
       <c r="F130" s="20"/>
       <c r="G130" s="52"/>
       <c r="H130" s="37"/>
-      <c r="I130" s="32" t="s">
-        <v>32</v>
+      <c r="I130" s="9">
+        <f t="shared" si="1"/>
+        <v>136.25</v>
       </c>
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
@@ -5849,14 +6519,20 @@
         <v>1.25</v>
       </c>
       <c r="D131" s="37"/>
-      <c r="E131" s="9"/>
+      <c r="E131" s="9">
+        <f>SUM(C131,E130)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>87.5</v>
+      </c>
       <c r="F131" s="20"/>
       <c r="G131" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H131" s="37"/>
-      <c r="I131" s="9"/>
+      <c r="I131" s="9">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
@@ -5869,14 +6545,20 @@
         <v>1.25</v>
       </c>
       <c r="D132" s="37"/>
-      <c r="E132" s="9"/>
+      <c r="E132" s="9">
+        <f>SUM(C132,E131)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>88.75</v>
+      </c>
       <c r="F132" s="20"/>
       <c r="G132" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H132" s="37"/>
-      <c r="I132" s="9"/>
+      <c r="I132" s="9">
+        <f t="shared" si="1"/>
+        <v>138.75</v>
+      </c>
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
@@ -5889,14 +6571,20 @@
         <v>1.25</v>
       </c>
       <c r="D133" s="37"/>
-      <c r="E133" s="9"/>
+      <c r="E133" s="9">
+        <f>SUM(C133,E132)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>90</v>
+      </c>
       <c r="F133" s="20"/>
       <c r="G133" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H133" s="37"/>
-      <c r="I133" s="9"/>
+      <c r="I133" s="9">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
@@ -5909,14 +6597,20 @@
         <v>1.25</v>
       </c>
       <c r="D134" s="37"/>
-      <c r="E134" s="9"/>
+      <c r="E134" s="9">
+        <f>SUM(C134,E133)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>91.25</v>
+      </c>
       <c r="F134" s="20"/>
       <c r="G134" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H134" s="37"/>
-      <c r="I134" s="9"/>
+      <c r="I134" s="9">
+        <f t="shared" si="1"/>
+        <v>141.25</v>
+      </c>
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
@@ -5929,14 +6623,20 @@
         <v>1.25</v>
       </c>
       <c r="D135" s="37"/>
-      <c r="E135" s="9"/>
+      <c r="E135" s="9">
+        <f>SUM(C135,E134)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>92.5</v>
+      </c>
       <c r="F135" s="20"/>
       <c r="G135" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H135" s="37"/>
-      <c r="I135" s="9"/>
+      <c r="I135" s="9">
+        <f t="shared" si="1"/>
+        <v>142.5</v>
+      </c>
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
@@ -5949,14 +6649,20 @@
         <v>1.25</v>
       </c>
       <c r="D136" s="37"/>
-      <c r="E136" s="9"/>
+      <c r="E136" s="9">
+        <f>SUM(C136,E135)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>93.75</v>
+      </c>
       <c r="F136" s="20"/>
       <c r="G136" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H136" s="37"/>
-      <c r="I136" s="9"/>
+      <c r="I136" s="9">
+        <f t="shared" si="1"/>
+        <v>143.75</v>
+      </c>
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
@@ -5969,14 +6675,20 @@
         <v>1.25</v>
       </c>
       <c r="D137" s="37"/>
-      <c r="E137" s="9"/>
+      <c r="E137" s="9">
+        <f>SUM(C137,E136)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>95</v>
+      </c>
       <c r="F137" s="20"/>
       <c r="G137" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H137" s="37"/>
-      <c r="I137" s="9"/>
+      <c r="I137" s="9">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
@@ -5989,14 +6701,20 @@
         <v>1.25</v>
       </c>
       <c r="D138" s="37"/>
-      <c r="E138" s="9"/>
+      <c r="E138" s="9">
+        <f>SUM(C138,E137)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>96.25</v>
+      </c>
       <c r="F138" s="20"/>
       <c r="G138" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H138" s="37"/>
-      <c r="I138" s="9"/>
+      <c r="I138" s="9">
+        <f t="shared" si="1"/>
+        <v>146.25</v>
+      </c>
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
@@ -6009,14 +6727,20 @@
         <v>1.25</v>
       </c>
       <c r="D139" s="40"/>
-      <c r="E139" s="9"/>
+      <c r="E139" s="9">
+        <f>SUM(C139,E138)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>97.5</v>
+      </c>
       <c r="F139" s="15"/>
       <c r="G139" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H139" s="40"/>
-      <c r="I139" s="9"/>
+      <c r="I139" s="9">
+        <f t="shared" si="1"/>
+        <v>147.5</v>
+      </c>
       <c r="J139" s="12"/>
       <c r="K139" s="15"/>
     </row>
@@ -6029,14 +6753,20 @@
         <v>1.25</v>
       </c>
       <c r="D140" s="37"/>
-      <c r="E140" s="9"/>
+      <c r="E140" s="9">
+        <f>SUM(C140,E139)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>98.75</v>
+      </c>
       <c r="F140" s="20"/>
       <c r="G140" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H140" s="37"/>
-      <c r="I140" s="9"/>
+      <c r="I140" s="9">
+        <f t="shared" si="1"/>
+        <v>148.75</v>
+      </c>
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
@@ -6049,14 +6779,20 @@
         <v>1.25</v>
       </c>
       <c r="D141" s="37"/>
-      <c r="E141" s="9"/>
+      <c r="E141" s="9">
+        <f>SUM(C141,E140)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>100</v>
+      </c>
       <c r="F141" s="20"/>
       <c r="G141" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H141" s="37"/>
-      <c r="I141" s="9"/>
+      <c r="I141" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
@@ -6065,7 +6801,7 @@
         <v>39052</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -6073,26 +6809,33 @@
       <c r="D142" s="37">
         <v>5</v>
       </c>
-      <c r="E142" s="9"/>
+      <c r="E142" s="9">
+        <f>SUM(C142,E141)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>96.25</v>
+      </c>
       <c r="F142" s="20"/>
       <c r="G142" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H142" s="37"/>
-      <c r="I142" s="9"/>
+      <c r="I142" s="9">
+        <f t="shared" ref="I142:I205" si="2">SUM(G142,I141)-H142</f>
+        <v>151.25</v>
+      </c>
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
       <c r="D143" s="37"/>
-      <c r="E143" s="32" t="s">
-        <v>32</v>
+      <c r="E143" s="9">
+        <f>SUM(C143,E142)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>96.25</v>
       </c>
       <c r="F143" s="20"/>
       <c r="G143" s="39" t="str">
@@ -6100,8 +6843,9 @@
         <v/>
       </c>
       <c r="H143" s="37"/>
-      <c r="I143" s="32" t="s">
-        <v>32</v>
+      <c r="I143" s="9">
+        <f t="shared" si="2"/>
+        <v>151.25</v>
       </c>
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
@@ -6115,14 +6859,20 @@
         <v>1.25</v>
       </c>
       <c r="D144" s="37"/>
-      <c r="E144" s="9"/>
+      <c r="E144" s="9">
+        <f>SUM(C144,E143)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>97.5</v>
+      </c>
       <c r="F144" s="20"/>
       <c r="G144" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H144" s="37"/>
-      <c r="I144" s="9"/>
+      <c r="I144" s="9">
+        <f t="shared" si="2"/>
+        <v>152.5</v>
+      </c>
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
@@ -6135,14 +6885,20 @@
         <v>1.25</v>
       </c>
       <c r="D145" s="37"/>
-      <c r="E145" s="9"/>
+      <c r="E145" s="9">
+        <f>SUM(C145,E144)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>98.75</v>
+      </c>
       <c r="F145" s="20"/>
       <c r="G145" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H145" s="37"/>
-      <c r="I145" s="9"/>
+      <c r="I145" s="9">
+        <f t="shared" si="2"/>
+        <v>153.75</v>
+      </c>
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
@@ -6155,14 +6911,20 @@
         <v>1.25</v>
       </c>
       <c r="D146" s="37"/>
-      <c r="E146" s="9"/>
+      <c r="E146" s="9">
+        <f>SUM(C146,E145)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>100</v>
+      </c>
       <c r="F146" s="20"/>
       <c r="G146" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H146" s="37"/>
-      <c r="I146" s="9"/>
+      <c r="I146" s="9">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
@@ -6175,14 +6937,20 @@
         <v>1.25</v>
       </c>
       <c r="D147" s="37"/>
-      <c r="E147" s="9"/>
+      <c r="E147" s="9">
+        <f>SUM(C147,E146)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>101.25</v>
+      </c>
       <c r="F147" s="20"/>
       <c r="G147" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H147" s="37"/>
-      <c r="I147" s="9"/>
+      <c r="I147" s="9">
+        <f t="shared" si="2"/>
+        <v>156.25</v>
+      </c>
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
@@ -6195,14 +6963,20 @@
         <v>1.25</v>
       </c>
       <c r="D148" s="37"/>
-      <c r="E148" s="9"/>
+      <c r="E148" s="9">
+        <f>SUM(C148,E147)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>102.5</v>
+      </c>
       <c r="F148" s="20"/>
       <c r="G148" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H148" s="37"/>
-      <c r="I148" s="9"/>
+      <c r="I148" s="9">
+        <f t="shared" si="2"/>
+        <v>157.5</v>
+      </c>
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
@@ -6215,14 +6989,20 @@
         <v>1.25</v>
       </c>
       <c r="D149" s="37"/>
-      <c r="E149" s="9"/>
+      <c r="E149" s="9">
+        <f>SUM(C149,E148)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>103.75</v>
+      </c>
       <c r="F149" s="20"/>
       <c r="G149" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H149" s="37"/>
-      <c r="I149" s="9"/>
+      <c r="I149" s="9">
+        <f t="shared" si="2"/>
+        <v>158.75</v>
+      </c>
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
@@ -6235,14 +7015,20 @@
         <v>1.25</v>
       </c>
       <c r="D150" s="37"/>
-      <c r="E150" s="9"/>
+      <c r="E150" s="9">
+        <f>SUM(C150,E149)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>105</v>
+      </c>
       <c r="F150" s="20"/>
       <c r="G150" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H150" s="37"/>
-      <c r="I150" s="9"/>
+      <c r="I150" s="9">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
@@ -6255,14 +7041,20 @@
         <v>1.25</v>
       </c>
       <c r="D151" s="37"/>
-      <c r="E151" s="9"/>
+      <c r="E151" s="9">
+        <f>SUM(C151,E150)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>106.25</v>
+      </c>
       <c r="F151" s="20"/>
       <c r="G151" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H151" s="37"/>
-      <c r="I151" s="9"/>
+      <c r="I151" s="9">
+        <f t="shared" si="2"/>
+        <v>161.25</v>
+      </c>
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
@@ -6275,14 +7067,20 @@
         <v>1.25</v>
       </c>
       <c r="D152" s="37"/>
-      <c r="E152" s="9"/>
+      <c r="E152" s="9">
+        <f>SUM(C152,E151)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>107.5</v>
+      </c>
       <c r="F152" s="20"/>
       <c r="G152" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H152" s="37"/>
-      <c r="I152" s="9"/>
+      <c r="I152" s="9">
+        <f t="shared" si="2"/>
+        <v>162.5</v>
+      </c>
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
@@ -6291,13 +7089,16 @@
         <v>39356</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
       </c>
       <c r="D153" s="37"/>
-      <c r="E153" s="9"/>
+      <c r="E153" s="9">
+        <f>SUM(C153,E152)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>108.75</v>
+      </c>
       <c r="F153" s="20"/>
       <c r="G153" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -6306,10 +7107,13 @@
       <c r="H153" s="37">
         <v>7</v>
       </c>
-      <c r="I153" s="9"/>
+      <c r="I153" s="9">
+        <f t="shared" si="2"/>
+        <v>156.75</v>
+      </c>
       <c r="J153" s="11"/>
       <c r="K153" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -6317,13 +7121,16 @@
         <v>39387</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
       </c>
       <c r="D154" s="37"/>
-      <c r="E154" s="9"/>
+      <c r="E154" s="9">
+        <f>SUM(C154,E153)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>110</v>
+      </c>
       <c r="F154" s="20"/>
       <c r="G154" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -6332,7 +7139,10 @@
       <c r="H154" s="37">
         <v>30</v>
       </c>
-      <c r="I154" s="9"/>
+      <c r="I154" s="9">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
@@ -6341,7 +7151,7 @@
         <v>39417</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C155" s="13">
         <v>1.25</v>
@@ -6349,26 +7159,33 @@
       <c r="D155" s="37">
         <v>5</v>
       </c>
-      <c r="E155" s="9"/>
+      <c r="E155" s="9">
+        <f>SUM(C155,E154)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>106.25</v>
+      </c>
       <c r="F155" s="20"/>
       <c r="G155" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H155" s="37"/>
-      <c r="I155" s="9"/>
+      <c r="I155" s="9">
+        <f t="shared" si="2"/>
+        <v>129.25</v>
+      </c>
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
       <c r="D156" s="37"/>
-      <c r="E156" s="32" t="s">
-        <v>32</v>
+      <c r="E156" s="9">
+        <f>SUM(C156,E155)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>106.25</v>
       </c>
       <c r="F156" s="20"/>
       <c r="G156" s="39" t="str">
@@ -6376,8 +7193,9 @@
         <v/>
       </c>
       <c r="H156" s="37"/>
-      <c r="I156" s="32" t="s">
-        <v>32</v>
+      <c r="I156" s="9">
+        <f t="shared" si="2"/>
+        <v>129.25</v>
       </c>
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
@@ -6391,14 +7209,20 @@
         <v>1.25</v>
       </c>
       <c r="D157" s="37"/>
-      <c r="E157" s="9"/>
+      <c r="E157" s="9">
+        <f>SUM(C157,E156)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>107.5</v>
+      </c>
       <c r="F157" s="20"/>
       <c r="G157" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H157" s="37"/>
-      <c r="I157" s="9"/>
+      <c r="I157" s="9">
+        <f t="shared" si="2"/>
+        <v>130.5</v>
+      </c>
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
@@ -6411,14 +7235,20 @@
         <v>1.25</v>
       </c>
       <c r="D158" s="37"/>
-      <c r="E158" s="9"/>
+      <c r="E158" s="9">
+        <f>SUM(C158,E157)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>108.75</v>
+      </c>
       <c r="F158" s="20"/>
       <c r="G158" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H158" s="37"/>
-      <c r="I158" s="9"/>
+      <c r="I158" s="9">
+        <f t="shared" si="2"/>
+        <v>131.75</v>
+      </c>
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
@@ -6431,14 +7261,20 @@
         <v>1.25</v>
       </c>
       <c r="D159" s="37"/>
-      <c r="E159" s="9"/>
+      <c r="E159" s="9">
+        <f>SUM(C159,E158)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>110</v>
+      </c>
       <c r="F159" s="20"/>
       <c r="G159" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H159" s="37"/>
-      <c r="I159" s="9"/>
+      <c r="I159" s="9">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
@@ -6451,14 +7287,20 @@
         <v>1.25</v>
       </c>
       <c r="D160" s="37"/>
-      <c r="E160" s="9"/>
+      <c r="E160" s="9">
+        <f>SUM(C160,E159)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>111.25</v>
+      </c>
       <c r="F160" s="20"/>
       <c r="G160" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H160" s="37"/>
-      <c r="I160" s="9"/>
+      <c r="I160" s="9">
+        <f t="shared" si="2"/>
+        <v>134.25</v>
+      </c>
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
@@ -6471,14 +7313,20 @@
         <v>1.25</v>
       </c>
       <c r="D161" s="37"/>
-      <c r="E161" s="9"/>
+      <c r="E161" s="9">
+        <f>SUM(C161,E160)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>112.5</v>
+      </c>
       <c r="F161" s="20"/>
       <c r="G161" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H161" s="37"/>
-      <c r="I161" s="9"/>
+      <c r="I161" s="9">
+        <f t="shared" si="2"/>
+        <v>135.5</v>
+      </c>
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
@@ -6491,14 +7339,20 @@
         <v>1.25</v>
       </c>
       <c r="D162" s="37"/>
-      <c r="E162" s="9"/>
+      <c r="E162" s="9">
+        <f>SUM(C162,E161)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>113.75</v>
+      </c>
       <c r="F162" s="20"/>
       <c r="G162" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H162" s="37"/>
-      <c r="I162" s="9"/>
+      <c r="I162" s="9">
+        <f t="shared" si="2"/>
+        <v>136.75</v>
+      </c>
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
@@ -6511,14 +7365,20 @@
         <v>1.25</v>
       </c>
       <c r="D163" s="37"/>
-      <c r="E163" s="9"/>
+      <c r="E163" s="9">
+        <f>SUM(C163,E162)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>115</v>
+      </c>
       <c r="F163" s="20"/>
       <c r="G163" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H163" s="37"/>
-      <c r="I163" s="9"/>
+      <c r="I163" s="9">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
@@ -6531,14 +7391,20 @@
         <v>1.25</v>
       </c>
       <c r="D164" s="37"/>
-      <c r="E164" s="9"/>
+      <c r="E164" s="9">
+        <f>SUM(C164,E163)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>116.25</v>
+      </c>
       <c r="F164" s="20"/>
       <c r="G164" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H164" s="37"/>
-      <c r="I164" s="9"/>
+      <c r="I164" s="9">
+        <f t="shared" si="2"/>
+        <v>139.25</v>
+      </c>
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
@@ -6551,14 +7417,20 @@
         <v>1.25</v>
       </c>
       <c r="D165" s="37"/>
-      <c r="E165" s="9"/>
+      <c r="E165" s="9">
+        <f>SUM(C165,E164)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>117.5</v>
+      </c>
       <c r="F165" s="20"/>
       <c r="G165" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H165" s="37"/>
-      <c r="I165" s="9"/>
+      <c r="I165" s="9">
+        <f t="shared" si="2"/>
+        <v>140.5</v>
+      </c>
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
@@ -6571,14 +7443,20 @@
         <v>1.25</v>
       </c>
       <c r="D166" s="37"/>
-      <c r="E166" s="9"/>
+      <c r="E166" s="9">
+        <f>SUM(C166,E165)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>118.75</v>
+      </c>
       <c r="F166" s="20"/>
       <c r="G166" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H166" s="37"/>
-      <c r="I166" s="9"/>
+      <c r="I166" s="9">
+        <f t="shared" si="2"/>
+        <v>141.75</v>
+      </c>
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
@@ -6591,14 +7469,20 @@
         <v>1.25</v>
       </c>
       <c r="D167" s="37"/>
-      <c r="E167" s="9"/>
+      <c r="E167" s="9">
+        <f>SUM(C167,E166)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>120</v>
+      </c>
       <c r="F167" s="20"/>
       <c r="G167" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H167" s="37"/>
-      <c r="I167" s="9"/>
+      <c r="I167" s="9">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
@@ -6607,7 +7491,7 @@
         <v>39783</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C168" s="13">
         <v>1.25</v>
@@ -6615,26 +7499,33 @@
       <c r="D168" s="37">
         <v>5</v>
       </c>
-      <c r="E168" s="9"/>
+      <c r="E168" s="9">
+        <f>SUM(C168,E167)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>116.25</v>
+      </c>
       <c r="F168" s="20"/>
       <c r="G168" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H168" s="37"/>
-      <c r="I168" s="9"/>
+      <c r="I168" s="9">
+        <f t="shared" si="2"/>
+        <v>144.25</v>
+      </c>
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
       <c r="D169" s="37"/>
-      <c r="E169" s="32" t="s">
-        <v>32</v>
+      <c r="E169" s="9">
+        <f>SUM(C169,E168)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>116.25</v>
       </c>
       <c r="F169" s="20"/>
       <c r="G169" s="39" t="str">
@@ -6642,8 +7533,9 @@
         <v/>
       </c>
       <c r="H169" s="37"/>
-      <c r="I169" s="32" t="s">
-        <v>32</v>
+      <c r="I169" s="9">
+        <f t="shared" si="2"/>
+        <v>144.25</v>
       </c>
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
@@ -6657,14 +7549,20 @@
         <v>1.25</v>
       </c>
       <c r="D170" s="37"/>
-      <c r="E170" s="9"/>
+      <c r="E170" s="9">
+        <f>SUM(C170,E169)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>117.5</v>
+      </c>
       <c r="F170" s="20"/>
       <c r="G170" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H170" s="37"/>
-      <c r="I170" s="9"/>
+      <c r="I170" s="9">
+        <f t="shared" si="2"/>
+        <v>145.5</v>
+      </c>
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
@@ -6677,14 +7575,20 @@
         <v>1.25</v>
       </c>
       <c r="D171" s="37"/>
-      <c r="E171" s="9"/>
+      <c r="E171" s="9">
+        <f>SUM(C171,E170)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>118.75</v>
+      </c>
       <c r="F171" s="20"/>
       <c r="G171" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H171" s="37"/>
-      <c r="I171" s="9"/>
+      <c r="I171" s="9">
+        <f t="shared" si="2"/>
+        <v>146.75</v>
+      </c>
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
@@ -6697,14 +7601,20 @@
         <v>1.25</v>
       </c>
       <c r="D172" s="37"/>
-      <c r="E172" s="9"/>
+      <c r="E172" s="9">
+        <f>SUM(C172,E171)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>120</v>
+      </c>
       <c r="F172" s="20"/>
       <c r="G172" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H172" s="37"/>
-      <c r="I172" s="9"/>
+      <c r="I172" s="9">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
@@ -6717,14 +7627,20 @@
         <v>1.25</v>
       </c>
       <c r="D173" s="37"/>
-      <c r="E173" s="9"/>
+      <c r="E173" s="9">
+        <f>SUM(C173,E172)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>121.25</v>
+      </c>
       <c r="F173" s="20"/>
       <c r="G173" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H173" s="37"/>
-      <c r="I173" s="9"/>
+      <c r="I173" s="9">
+        <f t="shared" si="2"/>
+        <v>149.25</v>
+      </c>
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
@@ -6737,14 +7653,20 @@
         <v>1.25</v>
       </c>
       <c r="D174" s="37"/>
-      <c r="E174" s="9"/>
+      <c r="E174" s="9">
+        <f>SUM(C174,E173)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>122.5</v>
+      </c>
       <c r="F174" s="20"/>
       <c r="G174" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H174" s="37"/>
-      <c r="I174" s="9"/>
+      <c r="I174" s="9">
+        <f t="shared" si="2"/>
+        <v>150.5</v>
+      </c>
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
@@ -6757,14 +7679,20 @@
         <v>1.25</v>
       </c>
       <c r="D175" s="37"/>
-      <c r="E175" s="9"/>
+      <c r="E175" s="9">
+        <f>SUM(C175,E174)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>123.75</v>
+      </c>
       <c r="F175" s="20"/>
       <c r="G175" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H175" s="37"/>
-      <c r="I175" s="9"/>
+      <c r="I175" s="9">
+        <f t="shared" si="2"/>
+        <v>151.75</v>
+      </c>
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
@@ -6777,14 +7705,20 @@
         <v>1.25</v>
       </c>
       <c r="D176" s="37"/>
-      <c r="E176" s="9"/>
+      <c r="E176" s="9">
+        <f>SUM(C176,E175)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>125</v>
+      </c>
       <c r="F176" s="20"/>
       <c r="G176" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H176" s="37"/>
-      <c r="I176" s="9"/>
+      <c r="I176" s="9">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
@@ -6797,14 +7731,20 @@
         <v>1.25</v>
       </c>
       <c r="D177" s="37"/>
-      <c r="E177" s="9"/>
+      <c r="E177" s="9">
+        <f>SUM(C177,E176)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>126.25</v>
+      </c>
       <c r="F177" s="20"/>
       <c r="G177" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H177" s="37"/>
-      <c r="I177" s="9"/>
+      <c r="I177" s="9">
+        <f t="shared" si="2"/>
+        <v>154.25</v>
+      </c>
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
@@ -6817,14 +7757,20 @@
         <v>1.25</v>
       </c>
       <c r="D178" s="37"/>
-      <c r="E178" s="9"/>
+      <c r="E178" s="9">
+        <f>SUM(C178,E177)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>127.5</v>
+      </c>
       <c r="F178" s="20"/>
       <c r="G178" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H178" s="37"/>
-      <c r="I178" s="9"/>
+      <c r="I178" s="9">
+        <f t="shared" si="2"/>
+        <v>155.5</v>
+      </c>
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
@@ -6837,14 +7783,20 @@
         <v>1.25</v>
       </c>
       <c r="D179" s="37"/>
-      <c r="E179" s="9"/>
+      <c r="E179" s="9">
+        <f>SUM(C179,E178)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>128.75</v>
+      </c>
       <c r="F179" s="20"/>
       <c r="G179" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H179" s="37"/>
-      <c r="I179" s="9"/>
+      <c r="I179" s="9">
+        <f t="shared" si="2"/>
+        <v>156.75</v>
+      </c>
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
@@ -6857,14 +7809,20 @@
         <v>1.25</v>
       </c>
       <c r="D180" s="37"/>
-      <c r="E180" s="9"/>
+      <c r="E180" s="9">
+        <f>SUM(C180,E179)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>130</v>
+      </c>
       <c r="F180" s="20"/>
       <c r="G180" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H180" s="37"/>
-      <c r="I180" s="9"/>
+      <c r="I180" s="9">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
@@ -6873,7 +7831,7 @@
         <v>40148</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C181" s="13">
         <v>1.25</v>
@@ -6881,26 +7839,33 @@
       <c r="D181" s="37">
         <v>5</v>
       </c>
-      <c r="E181" s="9"/>
+      <c r="E181" s="9">
+        <f>SUM(C181,E180)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>126.25</v>
+      </c>
       <c r="F181" s="20"/>
       <c r="G181" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H181" s="37"/>
-      <c r="I181" s="9"/>
+      <c r="I181" s="9">
+        <f t="shared" si="2"/>
+        <v>159.25</v>
+      </c>
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
       <c r="D182" s="37"/>
-      <c r="E182" s="32" t="s">
-        <v>32</v>
+      <c r="E182" s="9">
+        <f>SUM(C182,E181)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>126.25</v>
       </c>
       <c r="F182" s="20"/>
       <c r="G182" s="39" t="str">
@@ -6908,8 +7873,9 @@
         <v/>
       </c>
       <c r="H182" s="37"/>
-      <c r="I182" s="32" t="s">
-        <v>32</v>
+      <c r="I182" s="9">
+        <f t="shared" si="2"/>
+        <v>159.25</v>
       </c>
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
@@ -6923,14 +7889,20 @@
         <v>1.25</v>
       </c>
       <c r="D183" s="37"/>
-      <c r="E183" s="9"/>
+      <c r="E183" s="9">
+        <f>SUM(C183,E182)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>127.5</v>
+      </c>
       <c r="F183" s="20"/>
       <c r="G183" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H183" s="37"/>
-      <c r="I183" s="9"/>
+      <c r="I183" s="9">
+        <f t="shared" si="2"/>
+        <v>160.5</v>
+      </c>
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
@@ -6943,14 +7915,20 @@
         <v>1.25</v>
       </c>
       <c r="D184" s="37"/>
-      <c r="E184" s="9"/>
+      <c r="E184" s="9">
+        <f>SUM(C184,E183)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>128.75</v>
+      </c>
       <c r="F184" s="20"/>
       <c r="G184" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H184" s="37"/>
-      <c r="I184" s="9"/>
+      <c r="I184" s="9">
+        <f t="shared" si="2"/>
+        <v>161.75</v>
+      </c>
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
@@ -6963,14 +7941,20 @@
         <v>1.25</v>
       </c>
       <c r="D185" s="37"/>
-      <c r="E185" s="9"/>
+      <c r="E185" s="9">
+        <f>SUM(C185,E184)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>130</v>
+      </c>
       <c r="F185" s="20"/>
       <c r="G185" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H185" s="37"/>
-      <c r="I185" s="9"/>
+      <c r="I185" s="9">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
@@ -6983,14 +7967,20 @@
         <v>1.25</v>
       </c>
       <c r="D186" s="37"/>
-      <c r="E186" s="9"/>
+      <c r="E186" s="9">
+        <f>SUM(C186,E185)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>131.25</v>
+      </c>
       <c r="F186" s="20"/>
       <c r="G186" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H186" s="37"/>
-      <c r="I186" s="9"/>
+      <c r="I186" s="9">
+        <f t="shared" si="2"/>
+        <v>164.25</v>
+      </c>
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
@@ -7003,14 +7993,20 @@
         <v>1.25</v>
       </c>
       <c r="D187" s="37"/>
-      <c r="E187" s="9"/>
+      <c r="E187" s="9">
+        <f>SUM(C187,E186)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>132.5</v>
+      </c>
       <c r="F187" s="20"/>
       <c r="G187" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H187" s="37"/>
-      <c r="I187" s="9"/>
+      <c r="I187" s="9">
+        <f t="shared" si="2"/>
+        <v>165.5</v>
+      </c>
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
@@ -7023,14 +8019,20 @@
         <v>1.25</v>
       </c>
       <c r="D188" s="37"/>
-      <c r="E188" s="9"/>
+      <c r="E188" s="9">
+        <f>SUM(C188,E187)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>133.75</v>
+      </c>
       <c r="F188" s="20"/>
       <c r="G188" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H188" s="37"/>
-      <c r="I188" s="9"/>
+      <c r="I188" s="9">
+        <f t="shared" si="2"/>
+        <v>166.75</v>
+      </c>
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
@@ -7043,14 +8045,20 @@
         <v>1.25</v>
       </c>
       <c r="D189" s="37"/>
-      <c r="E189" s="9"/>
+      <c r="E189" s="9">
+        <f>SUM(C189,E188)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>135</v>
+      </c>
       <c r="F189" s="20"/>
       <c r="G189" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H189" s="37"/>
-      <c r="I189" s="9"/>
+      <c r="I189" s="9">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
@@ -7063,14 +8071,20 @@
         <v>1.25</v>
       </c>
       <c r="D190" s="37"/>
-      <c r="E190" s="9"/>
+      <c r="E190" s="9">
+        <f>SUM(C190,E189)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>136.25</v>
+      </c>
       <c r="F190" s="20"/>
       <c r="G190" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H190" s="37"/>
-      <c r="I190" s="9"/>
+      <c r="I190" s="9">
+        <f t="shared" si="2"/>
+        <v>169.25</v>
+      </c>
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
@@ -7083,14 +8097,20 @@
         <v>1.25</v>
       </c>
       <c r="D191" s="37"/>
-      <c r="E191" s="9"/>
+      <c r="E191" s="9">
+        <f>SUM(C191,E190)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>137.5</v>
+      </c>
       <c r="F191" s="20"/>
       <c r="G191" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H191" s="37"/>
-      <c r="I191" s="9"/>
+      <c r="I191" s="9">
+        <f t="shared" si="2"/>
+        <v>170.5</v>
+      </c>
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
@@ -7103,14 +8123,20 @@
         <v>1.25</v>
       </c>
       <c r="D192" s="37"/>
-      <c r="E192" s="9"/>
+      <c r="E192" s="9">
+        <f>SUM(C192,E191)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>138.75</v>
+      </c>
       <c r="F192" s="20"/>
       <c r="G192" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H192" s="37"/>
-      <c r="I192" s="9"/>
+      <c r="I192" s="9">
+        <f t="shared" si="2"/>
+        <v>171.75</v>
+      </c>
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
@@ -7123,14 +8149,20 @@
         <v>1.25</v>
       </c>
       <c r="D193" s="37"/>
-      <c r="E193" s="9"/>
+      <c r="E193" s="9">
+        <f>SUM(C193,E192)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>140</v>
+      </c>
       <c r="F193" s="20"/>
       <c r="G193" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H193" s="37"/>
-      <c r="I193" s="9"/>
+      <c r="I193" s="9">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
@@ -7139,7 +8171,7 @@
         <v>40513</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C194" s="13">
         <v>1.25</v>
@@ -7147,26 +8179,33 @@
       <c r="D194" s="37">
         <v>5</v>
       </c>
-      <c r="E194" s="9"/>
+      <c r="E194" s="9">
+        <f>SUM(C194,E193)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>136.25</v>
+      </c>
       <c r="F194" s="20"/>
       <c r="G194" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H194" s="37"/>
-      <c r="I194" s="9"/>
+      <c r="I194" s="9">
+        <f t="shared" si="2"/>
+        <v>174.25</v>
+      </c>
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
       <c r="D195" s="37"/>
-      <c r="E195" s="32" t="s">
-        <v>32</v>
+      <c r="E195" s="9">
+        <f>SUM(C195,E194)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>136.25</v>
       </c>
       <c r="F195" s="20"/>
       <c r="G195" s="39" t="str">
@@ -7174,8 +8213,9 @@
         <v/>
       </c>
       <c r="H195" s="37"/>
-      <c r="I195" s="32" t="s">
-        <v>32</v>
+      <c r="I195" s="9">
+        <f t="shared" si="2"/>
+        <v>174.25</v>
       </c>
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
@@ -7189,14 +8229,20 @@
         <v>1.25</v>
       </c>
       <c r="D196" s="37"/>
-      <c r="E196" s="9"/>
+      <c r="E196" s="9">
+        <f>SUM(C196,E195)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>137.5</v>
+      </c>
       <c r="F196" s="20"/>
       <c r="G196" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H196" s="37"/>
-      <c r="I196" s="9"/>
+      <c r="I196" s="9">
+        <f t="shared" si="2"/>
+        <v>175.5</v>
+      </c>
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
@@ -7209,14 +8255,20 @@
         <v>1.25</v>
       </c>
       <c r="D197" s="37"/>
-      <c r="E197" s="9"/>
+      <c r="E197" s="9">
+        <f>SUM(C197,E196)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>138.75</v>
+      </c>
       <c r="F197" s="20"/>
       <c r="G197" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H197" s="37"/>
-      <c r="I197" s="9"/>
+      <c r="I197" s="9">
+        <f t="shared" si="2"/>
+        <v>176.75</v>
+      </c>
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
@@ -7229,14 +8281,20 @@
         <v>1.25</v>
       </c>
       <c r="D198" s="37"/>
-      <c r="E198" s="9"/>
+      <c r="E198" s="9">
+        <f>SUM(C198,E197)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>140</v>
+      </c>
       <c r="F198" s="20"/>
       <c r="G198" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H198" s="37"/>
-      <c r="I198" s="9"/>
+      <c r="I198" s="9">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
@@ -7249,14 +8307,20 @@
         <v>1.25</v>
       </c>
       <c r="D199" s="37"/>
-      <c r="E199" s="9"/>
+      <c r="E199" s="9">
+        <f>SUM(C199,E198)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>141.25</v>
+      </c>
       <c r="F199" s="20"/>
       <c r="G199" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H199" s="37"/>
-      <c r="I199" s="9"/>
+      <c r="I199" s="9">
+        <f t="shared" si="2"/>
+        <v>179.25</v>
+      </c>
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
@@ -7269,14 +8333,20 @@
         <v>1.25</v>
       </c>
       <c r="D200" s="37"/>
-      <c r="E200" s="9"/>
+      <c r="E200" s="9">
+        <f>SUM(C200,E199)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>142.5</v>
+      </c>
       <c r="F200" s="20"/>
       <c r="G200" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H200" s="37"/>
-      <c r="I200" s="9"/>
+      <c r="I200" s="9">
+        <f t="shared" si="2"/>
+        <v>180.5</v>
+      </c>
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
@@ -7289,14 +8359,20 @@
         <v>1.25</v>
       </c>
       <c r="D201" s="37"/>
-      <c r="E201" s="9"/>
+      <c r="E201" s="9">
+        <f>SUM(C201,E200)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>143.75</v>
+      </c>
       <c r="F201" s="20"/>
       <c r="G201" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H201" s="37"/>
-      <c r="I201" s="9"/>
+      <c r="I201" s="9">
+        <f t="shared" si="2"/>
+        <v>181.75</v>
+      </c>
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
@@ -7305,13 +8381,16 @@
         <v>40725</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C202" s="13">
         <v>1.25</v>
       </c>
       <c r="D202" s="11"/>
-      <c r="E202" s="9"/>
+      <c r="E202" s="9">
+        <f>SUM(C202,E201)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>145</v>
+      </c>
       <c r="F202" s="20"/>
       <c r="G202" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -7320,20 +8399,26 @@
       <c r="H202" s="37">
         <v>21</v>
       </c>
-      <c r="I202" s="9"/>
+      <c r="I202" s="9">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
       <c r="J202" s="11"/>
       <c r="K202" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="38"/>
       <c r="B203" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="11"/>
-      <c r="E203" s="9"/>
+      <c r="E203" s="9">
+        <f>SUM(C203,E202)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>145</v>
+      </c>
       <c r="F203" s="20"/>
       <c r="G203" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -7342,10 +8427,13 @@
       <c r="H203" s="37">
         <v>23</v>
       </c>
-      <c r="I203" s="9"/>
+      <c r="I203" s="9">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
       <c r="J203" s="11"/>
       <c r="K203" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -7357,14 +8445,20 @@
         <v>1.25</v>
       </c>
       <c r="D204" s="37"/>
-      <c r="E204" s="9"/>
+      <c r="E204" s="9">
+        <f>SUM(C204,E203)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>146.25</v>
+      </c>
       <c r="F204" s="20"/>
       <c r="G204" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H204" s="37"/>
-      <c r="I204" s="9"/>
+      <c r="I204" s="9">
+        <f t="shared" si="2"/>
+        <v>140.25</v>
+      </c>
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
@@ -7377,14 +8471,20 @@
         <v>1.25</v>
       </c>
       <c r="D205" s="37"/>
-      <c r="E205" s="9"/>
+      <c r="E205" s="9">
+        <f>SUM(C205,E204)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>147.5</v>
+      </c>
       <c r="F205" s="20"/>
       <c r="G205" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H205" s="37"/>
-      <c r="I205" s="9"/>
+      <c r="I205" s="9">
+        <f t="shared" si="2"/>
+        <v>141.5</v>
+      </c>
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
@@ -7397,14 +8497,20 @@
         <v>1.25</v>
       </c>
       <c r="D206" s="37"/>
-      <c r="E206" s="9"/>
+      <c r="E206" s="9">
+        <f>SUM(C206,E205)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>148.75</v>
+      </c>
       <c r="F206" s="20"/>
       <c r="G206" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H206" s="37"/>
-      <c r="I206" s="9"/>
+      <c r="I206" s="9">
+        <f t="shared" ref="I206:I269" si="3">SUM(G206,I205)-H206</f>
+        <v>142.75</v>
+      </c>
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
@@ -7417,14 +8523,20 @@
         <v>1.25</v>
       </c>
       <c r="D207" s="37"/>
-      <c r="E207" s="9"/>
+      <c r="E207" s="9">
+        <f>SUM(C207,E206)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>150</v>
+      </c>
       <c r="F207" s="20"/>
       <c r="G207" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H207" s="37"/>
-      <c r="I207" s="9"/>
+      <c r="I207" s="9">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
@@ -7433,7 +8545,7 @@
         <v>40878</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C208" s="13">
         <v>1.25</v>
@@ -7441,26 +8553,33 @@
       <c r="D208" s="37">
         <v>5</v>
       </c>
-      <c r="E208" s="9"/>
+      <c r="E208" s="9">
+        <f>SUM(C208,E207)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>146.25</v>
+      </c>
       <c r="F208" s="20"/>
       <c r="G208" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H208" s="37"/>
-      <c r="I208" s="9"/>
+      <c r="I208" s="9">
+        <f t="shared" si="3"/>
+        <v>145.25</v>
+      </c>
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
       <c r="D209" s="37"/>
-      <c r="E209" s="32" t="s">
-        <v>32</v>
+      <c r="E209" s="9">
+        <f>SUM(C209,E208)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>146.25</v>
       </c>
       <c r="F209" s="20"/>
       <c r="G209" s="39" t="str">
@@ -7468,8 +8587,9 @@
         <v/>
       </c>
       <c r="H209" s="37"/>
-      <c r="I209" s="32" t="s">
-        <v>32</v>
+      <c r="I209" s="9">
+        <f t="shared" si="3"/>
+        <v>145.25</v>
       </c>
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
@@ -7483,14 +8603,20 @@
         <v>1.25</v>
       </c>
       <c r="D210" s="37"/>
-      <c r="E210" s="9"/>
+      <c r="E210" s="9">
+        <f>SUM(C210,E209)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>147.5</v>
+      </c>
       <c r="F210" s="20"/>
       <c r="G210" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H210" s="37"/>
-      <c r="I210" s="9"/>
+      <c r="I210" s="9">
+        <f t="shared" si="3"/>
+        <v>146.5</v>
+      </c>
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
@@ -7503,14 +8629,20 @@
         <v>1.25</v>
       </c>
       <c r="D211" s="37"/>
-      <c r="E211" s="9"/>
+      <c r="E211" s="9">
+        <f>SUM(C211,E210)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>148.75</v>
+      </c>
       <c r="F211" s="20"/>
       <c r="G211" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H211" s="37"/>
-      <c r="I211" s="9"/>
+      <c r="I211" s="9">
+        <f t="shared" si="3"/>
+        <v>147.75</v>
+      </c>
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
@@ -7523,14 +8655,20 @@
         <v>1.25</v>
       </c>
       <c r="D212" s="37"/>
-      <c r="E212" s="9"/>
+      <c r="E212" s="9">
+        <f>SUM(C212,E211)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>150</v>
+      </c>
       <c r="F212" s="20"/>
       <c r="G212" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H212" s="37"/>
-      <c r="I212" s="9"/>
+      <c r="I212" s="9">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
@@ -7543,14 +8681,20 @@
         <v>1.25</v>
       </c>
       <c r="D213" s="37"/>
-      <c r="E213" s="9"/>
+      <c r="E213" s="9">
+        <f>SUM(C213,E212)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>151.25</v>
+      </c>
       <c r="F213" s="20"/>
       <c r="G213" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H213" s="37"/>
-      <c r="I213" s="9"/>
+      <c r="I213" s="9">
+        <f t="shared" si="3"/>
+        <v>150.25</v>
+      </c>
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
@@ -7563,14 +8707,20 @@
         <v>1.25</v>
       </c>
       <c r="D214" s="37"/>
-      <c r="E214" s="9"/>
+      <c r="E214" s="9">
+        <f>SUM(C214,E213)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>152.5</v>
+      </c>
       <c r="F214" s="20"/>
       <c r="G214" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H214" s="37"/>
-      <c r="I214" s="9"/>
+      <c r="I214" s="9">
+        <f t="shared" si="3"/>
+        <v>151.5</v>
+      </c>
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
@@ -7583,14 +8733,20 @@
         <v>1.25</v>
       </c>
       <c r="D215" s="37"/>
-      <c r="E215" s="9"/>
+      <c r="E215" s="9">
+        <f>SUM(C215,E214)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>153.75</v>
+      </c>
       <c r="F215" s="20"/>
       <c r="G215" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H215" s="37"/>
-      <c r="I215" s="9"/>
+      <c r="I215" s="9">
+        <f t="shared" si="3"/>
+        <v>152.75</v>
+      </c>
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
@@ -7603,14 +8759,20 @@
         <v>1.25</v>
       </c>
       <c r="D216" s="37"/>
-      <c r="E216" s="9"/>
+      <c r="E216" s="9">
+        <f>SUM(C216,E215)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>155</v>
+      </c>
       <c r="F216" s="20"/>
       <c r="G216" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H216" s="37"/>
-      <c r="I216" s="9"/>
+      <c r="I216" s="9">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
@@ -7623,14 +8785,20 @@
         <v>1.25</v>
       </c>
       <c r="D217" s="37"/>
-      <c r="E217" s="9"/>
+      <c r="E217" s="9">
+        <f>SUM(C217,E216)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>156.25</v>
+      </c>
       <c r="F217" s="20"/>
       <c r="G217" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H217" s="37"/>
-      <c r="I217" s="9"/>
+      <c r="I217" s="9">
+        <f t="shared" si="3"/>
+        <v>155.25</v>
+      </c>
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
@@ -7643,14 +8811,20 @@
         <v>1.25</v>
       </c>
       <c r="D218" s="37"/>
-      <c r="E218" s="9"/>
+      <c r="E218" s="9">
+        <f>SUM(C218,E217)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>157.5</v>
+      </c>
       <c r="F218" s="20"/>
       <c r="G218" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H218" s="37"/>
-      <c r="I218" s="9"/>
+      <c r="I218" s="9">
+        <f t="shared" si="3"/>
+        <v>156.5</v>
+      </c>
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
@@ -7663,14 +8837,20 @@
         <v>1.25</v>
       </c>
       <c r="D219" s="37"/>
-      <c r="E219" s="9"/>
+      <c r="E219" s="9">
+        <f>SUM(C219,E218)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>158.75</v>
+      </c>
       <c r="F219" s="20"/>
       <c r="G219" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H219" s="37"/>
-      <c r="I219" s="9"/>
+      <c r="I219" s="9">
+        <f t="shared" si="3"/>
+        <v>157.75</v>
+      </c>
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
@@ -7679,13 +8859,16 @@
         <v>41214</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C220" s="13">
         <v>1.25</v>
       </c>
       <c r="D220" s="11"/>
-      <c r="E220" s="9"/>
+      <c r="E220" s="9">
+        <f>SUM(C220,E219)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>160</v>
+      </c>
       <c r="F220" s="20"/>
       <c r="G220" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -7694,67 +8877,79 @@
       <c r="H220" s="37">
         <v>8</v>
       </c>
-      <c r="I220" s="9"/>
+      <c r="I220" s="9">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
       <c r="J220" s="11"/>
       <c r="K220" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="38"/>
       <c r="B221" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="37">
         <v>5</v>
       </c>
-      <c r="E221" s="9"/>
+      <c r="E221" s="9">
+        <f>SUM(C221,E220)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>155</v>
+      </c>
       <c r="F221" s="20"/>
       <c r="G221" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H221" s="37"/>
-      <c r="I221" s="9"/>
+      <c r="I221" s="9">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
       <c r="J221" s="11"/>
       <c r="K221" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="38">
         <v>41244</v>
       </c>
-      <c r="B222" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="B222" s="20"/>
       <c r="C222" s="13">
         <v>1.25</v>
       </c>
-      <c r="D222" s="37">
-        <v>5</v>
-      </c>
-      <c r="E222" s="9"/>
+      <c r="D222" s="37"/>
+      <c r="E222" s="9">
+        <f>SUM(C222,E221)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>156.25</v>
+      </c>
       <c r="F222" s="20"/>
       <c r="G222" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H222" s="37"/>
-      <c r="I222" s="9"/>
+      <c r="I222" s="9">
+        <f t="shared" si="3"/>
+        <v>152.25</v>
+      </c>
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
       <c r="D223" s="37"/>
-      <c r="E223" s="32" t="s">
-        <v>32</v>
+      <c r="E223" s="9">
+        <f>SUM(C223,E222)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>156.25</v>
       </c>
       <c r="F223" s="20"/>
       <c r="G223" s="39" t="str">
@@ -7762,8 +8957,9 @@
         <v/>
       </c>
       <c r="H223" s="37"/>
-      <c r="I223" s="32" t="s">
-        <v>32</v>
+      <c r="I223" s="9">
+        <f t="shared" si="3"/>
+        <v>152.25</v>
       </c>
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
@@ -7777,14 +8973,20 @@
         <v>1.25</v>
       </c>
       <c r="D224" s="37"/>
-      <c r="E224" s="9"/>
+      <c r="E224" s="9">
+        <f>SUM(C224,E223)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>157.5</v>
+      </c>
       <c r="F224" s="20"/>
       <c r="G224" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H224" s="37"/>
-      <c r="I224" s="9"/>
+      <c r="I224" s="9">
+        <f t="shared" si="3"/>
+        <v>153.5</v>
+      </c>
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
@@ -7797,14 +8999,20 @@
         <v>1.25</v>
       </c>
       <c r="D225" s="37"/>
-      <c r="E225" s="9"/>
+      <c r="E225" s="9">
+        <f>SUM(C225,E224)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>158.75</v>
+      </c>
       <c r="F225" s="20"/>
       <c r="G225" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H225" s="37"/>
-      <c r="I225" s="9"/>
+      <c r="I225" s="9">
+        <f t="shared" si="3"/>
+        <v>154.75</v>
+      </c>
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
@@ -7817,14 +9025,20 @@
         <v>1.25</v>
       </c>
       <c r="D226" s="37"/>
-      <c r="E226" s="9"/>
+      <c r="E226" s="9">
+        <f>SUM(C226,E225)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>160</v>
+      </c>
       <c r="F226" s="20"/>
       <c r="G226" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H226" s="37"/>
-      <c r="I226" s="9"/>
+      <c r="I226" s="9">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
@@ -7837,14 +9051,20 @@
         <v>1.25</v>
       </c>
       <c r="D227" s="37"/>
-      <c r="E227" s="9"/>
+      <c r="E227" s="9">
+        <f>SUM(C227,E226)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>161.25</v>
+      </c>
       <c r="F227" s="20"/>
       <c r="G227" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H227" s="37"/>
-      <c r="I227" s="9"/>
+      <c r="I227" s="9">
+        <f t="shared" si="3"/>
+        <v>157.25</v>
+      </c>
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
@@ -7857,14 +9077,20 @@
         <v>1.25</v>
       </c>
       <c r="D228" s="37"/>
-      <c r="E228" s="9"/>
+      <c r="E228" s="9">
+        <f>SUM(C228,E227)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>162.5</v>
+      </c>
       <c r="F228" s="20"/>
       <c r="G228" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H228" s="37"/>
-      <c r="I228" s="9"/>
+      <c r="I228" s="9">
+        <f t="shared" si="3"/>
+        <v>158.5</v>
+      </c>
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
@@ -7877,14 +9103,20 @@
         <v>1.25</v>
       </c>
       <c r="D229" s="37"/>
-      <c r="E229" s="9"/>
+      <c r="E229" s="9">
+        <f>SUM(C229,E228)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>163.75</v>
+      </c>
       <c r="F229" s="20"/>
       <c r="G229" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H229" s="37"/>
-      <c r="I229" s="9"/>
+      <c r="I229" s="9">
+        <f t="shared" si="3"/>
+        <v>159.75</v>
+      </c>
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
@@ -7897,14 +9129,20 @@
         <v>1.25</v>
       </c>
       <c r="D230" s="37"/>
-      <c r="E230" s="9"/>
+      <c r="E230" s="9">
+        <f>SUM(C230,E229)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>165</v>
+      </c>
       <c r="F230" s="20"/>
       <c r="G230" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H230" s="37"/>
-      <c r="I230" s="9"/>
+      <c r="I230" s="9">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
@@ -7917,14 +9155,20 @@
         <v>1.25</v>
       </c>
       <c r="D231" s="37"/>
-      <c r="E231" s="9"/>
+      <c r="E231" s="9">
+        <f>SUM(C231,E230)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>166.25</v>
+      </c>
       <c r="F231" s="20"/>
       <c r="G231" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H231" s="37"/>
-      <c r="I231" s="9"/>
+      <c r="I231" s="9">
+        <f t="shared" si="3"/>
+        <v>162.25</v>
+      </c>
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
@@ -7937,14 +9181,20 @@
         <v>1.25</v>
       </c>
       <c r="D232" s="37"/>
-      <c r="E232" s="9"/>
+      <c r="E232" s="9">
+        <f>SUM(C232,E231)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>167.5</v>
+      </c>
       <c r="F232" s="20"/>
       <c r="G232" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H232" s="37"/>
-      <c r="I232" s="9"/>
+      <c r="I232" s="9">
+        <f t="shared" si="3"/>
+        <v>163.5</v>
+      </c>
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
@@ -7957,14 +9207,20 @@
         <v>1.25</v>
       </c>
       <c r="D233" s="37"/>
-      <c r="E233" s="9"/>
+      <c r="E233" s="9">
+        <f>SUM(C233,E232)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>168.75</v>
+      </c>
       <c r="F233" s="20"/>
       <c r="G233" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H233" s="37"/>
-      <c r="I233" s="9"/>
+      <c r="I233" s="9">
+        <f t="shared" si="3"/>
+        <v>164.75</v>
+      </c>
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
@@ -7977,14 +9233,20 @@
         <v>1.25</v>
       </c>
       <c r="D234" s="37"/>
-      <c r="E234" s="9"/>
+      <c r="E234" s="9">
+        <f>SUM(C234,E233)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>170</v>
+      </c>
       <c r="F234" s="20"/>
       <c r="G234" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H234" s="37"/>
-      <c r="I234" s="9"/>
+      <c r="I234" s="9">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
@@ -7993,7 +9255,7 @@
         <v>41609</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C235" s="13">
         <v>1.25</v>
@@ -8001,26 +9263,33 @@
       <c r="D235" s="37">
         <v>5</v>
       </c>
-      <c r="E235" s="9"/>
+      <c r="E235" s="9">
+        <f>SUM(C235,E234)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>166.25</v>
+      </c>
       <c r="F235" s="20"/>
       <c r="G235" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H235" s="37"/>
-      <c r="I235" s="9"/>
+      <c r="I235" s="9">
+        <f t="shared" si="3"/>
+        <v>167.25</v>
+      </c>
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
       <c r="D236" s="37"/>
-      <c r="E236" s="32" t="s">
-        <v>32</v>
+      <c r="E236" s="9">
+        <f>SUM(C236,E235)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>166.25</v>
       </c>
       <c r="F236" s="20"/>
       <c r="G236" s="39" t="str">
@@ -8028,8 +9297,9 @@
         <v/>
       </c>
       <c r="H236" s="37"/>
-      <c r="I236" s="32" t="s">
-        <v>32</v>
+      <c r="I236" s="9">
+        <f t="shared" si="3"/>
+        <v>167.25</v>
       </c>
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
@@ -8043,14 +9313,20 @@
         <v>1.25</v>
       </c>
       <c r="D237" s="37"/>
-      <c r="E237" s="9"/>
+      <c r="E237" s="9">
+        <f>SUM(C237,E236)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>167.5</v>
+      </c>
       <c r="F237" s="20"/>
       <c r="G237" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H237" s="37"/>
-      <c r="I237" s="9"/>
+      <c r="I237" s="9">
+        <f t="shared" si="3"/>
+        <v>168.5</v>
+      </c>
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
@@ -8063,14 +9339,20 @@
         <v>1.25</v>
       </c>
       <c r="D238" s="37"/>
-      <c r="E238" s="9"/>
+      <c r="E238" s="9">
+        <f>SUM(C238,E237)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>168.75</v>
+      </c>
       <c r="F238" s="20"/>
       <c r="G238" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H238" s="37"/>
-      <c r="I238" s="9"/>
+      <c r="I238" s="9">
+        <f t="shared" si="3"/>
+        <v>169.75</v>
+      </c>
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
@@ -8083,14 +9365,20 @@
         <v>1.25</v>
       </c>
       <c r="D239" s="37"/>
-      <c r="E239" s="9"/>
+      <c r="E239" s="9">
+        <f>SUM(C239,E238)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>170</v>
+      </c>
       <c r="F239" s="20"/>
       <c r="G239" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H239" s="37"/>
-      <c r="I239" s="9"/>
+      <c r="I239" s="9">
+        <f t="shared" si="3"/>
+        <v>171</v>
+      </c>
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
@@ -8103,14 +9391,20 @@
         <v>1.25</v>
       </c>
       <c r="D240" s="37"/>
-      <c r="E240" s="9"/>
+      <c r="E240" s="9">
+        <f>SUM(C240,E239)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>171.25</v>
+      </c>
       <c r="F240" s="20"/>
       <c r="G240" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H240" s="37"/>
-      <c r="I240" s="9"/>
+      <c r="I240" s="9">
+        <f t="shared" si="3"/>
+        <v>172.25</v>
+      </c>
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
@@ -8123,14 +9417,20 @@
         <v>1.25</v>
       </c>
       <c r="D241" s="37"/>
-      <c r="E241" s="9"/>
+      <c r="E241" s="9">
+        <f>SUM(C241,E240)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>172.5</v>
+      </c>
       <c r="F241" s="20"/>
       <c r="G241" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H241" s="37"/>
-      <c r="I241" s="9"/>
+      <c r="I241" s="9">
+        <f t="shared" si="3"/>
+        <v>173.5</v>
+      </c>
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
@@ -8143,14 +9443,20 @@
         <v>1.25</v>
       </c>
       <c r="D242" s="37"/>
-      <c r="E242" s="9"/>
+      <c r="E242" s="9">
+        <f>SUM(C242,E241)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>173.75</v>
+      </c>
       <c r="F242" s="20"/>
       <c r="G242" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H242" s="37"/>
-      <c r="I242" s="9"/>
+      <c r="I242" s="9">
+        <f t="shared" si="3"/>
+        <v>174.75</v>
+      </c>
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
@@ -8163,14 +9469,20 @@
         <v>1.25</v>
       </c>
       <c r="D243" s="37"/>
-      <c r="E243" s="9"/>
+      <c r="E243" s="9">
+        <f>SUM(C243,E242)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>175</v>
+      </c>
       <c r="F243" s="20"/>
       <c r="G243" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H243" s="37"/>
-      <c r="I243" s="9"/>
+      <c r="I243" s="9">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
@@ -8183,14 +9495,20 @@
         <v>1.25</v>
       </c>
       <c r="D244" s="37"/>
-      <c r="E244" s="9"/>
+      <c r="E244" s="9">
+        <f>SUM(C244,E243)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>176.25</v>
+      </c>
       <c r="F244" s="20"/>
       <c r="G244" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H244" s="37"/>
-      <c r="I244" s="9"/>
+      <c r="I244" s="9">
+        <f t="shared" si="3"/>
+        <v>177.25</v>
+      </c>
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
@@ -8203,14 +9521,20 @@
         <v>1.25</v>
       </c>
       <c r="D245" s="37"/>
-      <c r="E245" s="9"/>
+      <c r="E245" s="9">
+        <f>SUM(C245,E244)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>177.5</v>
+      </c>
       <c r="F245" s="20"/>
       <c r="G245" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H245" s="37"/>
-      <c r="I245" s="9"/>
+      <c r="I245" s="9">
+        <f t="shared" si="3"/>
+        <v>178.5</v>
+      </c>
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
@@ -8223,14 +9547,20 @@
         <v>1.25</v>
       </c>
       <c r="D246" s="37"/>
-      <c r="E246" s="9"/>
+      <c r="E246" s="9">
+        <f>SUM(C246,E245)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>178.75</v>
+      </c>
       <c r="F246" s="20"/>
       <c r="G246" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H246" s="37"/>
-      <c r="I246" s="9"/>
+      <c r="I246" s="9">
+        <f t="shared" si="3"/>
+        <v>179.75</v>
+      </c>
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
@@ -8243,14 +9573,20 @@
         <v>1.25</v>
       </c>
       <c r="D247" s="37"/>
-      <c r="E247" s="9"/>
+      <c r="E247" s="9">
+        <f>SUM(C247,E246)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>180</v>
+      </c>
       <c r="F247" s="20"/>
       <c r="G247" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H247" s="37"/>
-      <c r="I247" s="9"/>
+      <c r="I247" s="9">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
@@ -8259,7 +9595,7 @@
         <v>41974</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C248" s="13">
         <v>1.25</v>
@@ -8267,26 +9603,33 @@
       <c r="D248" s="37">
         <v>5</v>
       </c>
-      <c r="E248" s="9"/>
+      <c r="E248" s="9">
+        <f>SUM(C248,E247)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>176.25</v>
+      </c>
       <c r="F248" s="20"/>
       <c r="G248" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H248" s="37"/>
-      <c r="I248" s="9"/>
+      <c r="I248" s="9">
+        <f t="shared" si="3"/>
+        <v>182.25</v>
+      </c>
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
       <c r="D249" s="37"/>
-      <c r="E249" s="32" t="s">
-        <v>32</v>
+      <c r="E249" s="9">
+        <f>SUM(C249,E248)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>176.25</v>
       </c>
       <c r="F249" s="20"/>
       <c r="G249" s="39" t="str">
@@ -8294,8 +9637,9 @@
         <v/>
       </c>
       <c r="H249" s="37"/>
-      <c r="I249" s="32" t="s">
-        <v>32</v>
+      <c r="I249" s="9">
+        <f t="shared" si="3"/>
+        <v>182.25</v>
       </c>
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
@@ -8309,14 +9653,20 @@
         <v>1.25</v>
       </c>
       <c r="D250" s="37"/>
-      <c r="E250" s="9"/>
+      <c r="E250" s="9">
+        <f>SUM(C250,E249)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>177.5</v>
+      </c>
       <c r="F250" s="20"/>
       <c r="G250" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H250" s="37"/>
-      <c r="I250" s="9"/>
+      <c r="I250" s="9">
+        <f t="shared" si="3"/>
+        <v>183.5</v>
+      </c>
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
@@ -8329,14 +9679,20 @@
         <v>1.25</v>
       </c>
       <c r="D251" s="37"/>
-      <c r="E251" s="9"/>
+      <c r="E251" s="9">
+        <f>SUM(C251,E250)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>178.75</v>
+      </c>
       <c r="F251" s="20"/>
       <c r="G251" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H251" s="37"/>
-      <c r="I251" s="9"/>
+      <c r="I251" s="9">
+        <f t="shared" si="3"/>
+        <v>184.75</v>
+      </c>
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
@@ -8349,14 +9705,20 @@
         <v>1.25</v>
       </c>
       <c r="D252" s="37"/>
-      <c r="E252" s="9"/>
+      <c r="E252" s="9">
+        <f>SUM(C252,E251)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>180</v>
+      </c>
       <c r="F252" s="20"/>
       <c r="G252" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H252" s="37"/>
-      <c r="I252" s="9"/>
+      <c r="I252" s="9">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
@@ -8369,14 +9731,20 @@
         <v>1.25</v>
       </c>
       <c r="D253" s="37"/>
-      <c r="E253" s="9"/>
+      <c r="E253" s="9">
+        <f>SUM(C253,E252)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>181.25</v>
+      </c>
       <c r="F253" s="20"/>
       <c r="G253" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H253" s="37"/>
-      <c r="I253" s="9"/>
+      <c r="I253" s="9">
+        <f t="shared" si="3"/>
+        <v>187.25</v>
+      </c>
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
@@ -8389,14 +9757,20 @@
         <v>1.25</v>
       </c>
       <c r="D254" s="37"/>
-      <c r="E254" s="9"/>
+      <c r="E254" s="9">
+        <f>SUM(C254,E253)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>182.5</v>
+      </c>
       <c r="F254" s="20"/>
       <c r="G254" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H254" s="37"/>
-      <c r="I254" s="9"/>
+      <c r="I254" s="9">
+        <f t="shared" si="3"/>
+        <v>188.5</v>
+      </c>
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
@@ -8409,14 +9783,20 @@
         <v>1.25</v>
       </c>
       <c r="D255" s="37"/>
-      <c r="E255" s="9"/>
+      <c r="E255" s="9">
+        <f>SUM(C255,E254)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>183.75</v>
+      </c>
       <c r="F255" s="20"/>
       <c r="G255" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H255" s="37"/>
-      <c r="I255" s="9"/>
+      <c r="I255" s="9">
+        <f t="shared" si="3"/>
+        <v>189.75</v>
+      </c>
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
@@ -8429,14 +9809,20 @@
         <v>1.25</v>
       </c>
       <c r="D256" s="37"/>
-      <c r="E256" s="9"/>
+      <c r="E256" s="9">
+        <f>SUM(C256,E255)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>185</v>
+      </c>
       <c r="F256" s="20"/>
       <c r="G256" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H256" s="37"/>
-      <c r="I256" s="9"/>
+      <c r="I256" s="9">
+        <f t="shared" si="3"/>
+        <v>191</v>
+      </c>
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
@@ -8445,13 +9831,16 @@
         <v>42217</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C257" s="13">
         <v>1.25</v>
       </c>
       <c r="D257" s="11"/>
-      <c r="E257" s="9"/>
+      <c r="E257" s="9">
+        <f>SUM(C257,E256)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>186.25</v>
+      </c>
       <c r="F257" s="20"/>
       <c r="G257" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -8460,7 +9849,10 @@
       <c r="H257" s="37">
         <v>45</v>
       </c>
-      <c r="I257" s="9"/>
+      <c r="I257" s="9">
+        <f t="shared" si="3"/>
+        <v>147.25</v>
+      </c>
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
@@ -8473,14 +9865,20 @@
         <v>1.25</v>
       </c>
       <c r="D258" s="37"/>
-      <c r="E258" s="9"/>
+      <c r="E258" s="9">
+        <f>SUM(C258,E257)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>187.5</v>
+      </c>
       <c r="F258" s="20"/>
       <c r="G258" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H258" s="37"/>
-      <c r="I258" s="9"/>
+      <c r="I258" s="9">
+        <f t="shared" si="3"/>
+        <v>148.5</v>
+      </c>
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
@@ -8493,14 +9891,20 @@
         <v>1.25</v>
       </c>
       <c r="D259" s="37"/>
-      <c r="E259" s="9"/>
+      <c r="E259" s="9">
+        <f>SUM(C259,E258)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>188.75</v>
+      </c>
       <c r="F259" s="20"/>
       <c r="G259" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H259" s="37"/>
-      <c r="I259" s="9"/>
+      <c r="I259" s="9">
+        <f t="shared" si="3"/>
+        <v>149.75</v>
+      </c>
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
@@ -8513,14 +9917,20 @@
         <v>1.25</v>
       </c>
       <c r="D260" s="37"/>
-      <c r="E260" s="9"/>
+      <c r="E260" s="9">
+        <f>SUM(C260,E259)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>190</v>
+      </c>
       <c r="F260" s="20"/>
       <c r="G260" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H260" s="37"/>
-      <c r="I260" s="9"/>
+      <c r="I260" s="9">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
@@ -8529,7 +9939,7 @@
         <v>42339</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C261" s="13">
         <v>1.25</v>
@@ -8537,26 +9947,33 @@
       <c r="D261" s="37">
         <v>5</v>
       </c>
-      <c r="E261" s="9"/>
+      <c r="E261" s="9">
+        <f>SUM(C261,E260)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>186.25</v>
+      </c>
       <c r="F261" s="20"/>
       <c r="G261" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H261" s="37"/>
-      <c r="I261" s="9"/>
+      <c r="I261" s="9">
+        <f t="shared" si="3"/>
+        <v>152.25</v>
+      </c>
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
       <c r="D262" s="37"/>
-      <c r="E262" s="32" t="s">
-        <v>32</v>
+      <c r="E262" s="9">
+        <f>SUM(C262,E261)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>186.25</v>
       </c>
       <c r="F262" s="20"/>
       <c r="G262" s="39" t="str">
@@ -8564,8 +9981,9 @@
         <v/>
       </c>
       <c r="H262" s="37"/>
-      <c r="I262" s="32" t="s">
-        <v>32</v>
+      <c r="I262" s="9">
+        <f t="shared" si="3"/>
+        <v>152.25</v>
       </c>
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
@@ -8579,14 +9997,20 @@
         <v>1.25</v>
       </c>
       <c r="D263" s="37"/>
-      <c r="E263" s="9"/>
+      <c r="E263" s="9">
+        <f>SUM(C263,E262)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>187.5</v>
+      </c>
       <c r="F263" s="20"/>
       <c r="G263" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H263" s="37"/>
-      <c r="I263" s="9"/>
+      <c r="I263" s="9">
+        <f t="shared" si="3"/>
+        <v>153.5</v>
+      </c>
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
@@ -8599,14 +10023,20 @@
         <v>1.25</v>
       </c>
       <c r="D264" s="37"/>
-      <c r="E264" s="9"/>
+      <c r="E264" s="9">
+        <f>SUM(C264,E263)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>188.75</v>
+      </c>
       <c r="F264" s="20"/>
       <c r="G264" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H264" s="37"/>
-      <c r="I264" s="9"/>
+      <c r="I264" s="9">
+        <f t="shared" si="3"/>
+        <v>154.75</v>
+      </c>
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
@@ -8619,14 +10049,20 @@
         <v>1.25</v>
       </c>
       <c r="D265" s="37"/>
-      <c r="E265" s="9"/>
+      <c r="E265" s="9">
+        <f>SUM(C265,E264)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>190</v>
+      </c>
       <c r="F265" s="20"/>
       <c r="G265" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H265" s="37"/>
-      <c r="I265" s="9"/>
+      <c r="I265" s="9">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
@@ -8639,14 +10075,20 @@
         <v>1.25</v>
       </c>
       <c r="D266" s="37"/>
-      <c r="E266" s="9"/>
+      <c r="E266" s="9">
+        <f>SUM(C266,E265)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>191.25</v>
+      </c>
       <c r="F266" s="20"/>
       <c r="G266" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H266" s="37"/>
-      <c r="I266" s="9"/>
+      <c r="I266" s="9">
+        <f t="shared" si="3"/>
+        <v>157.25</v>
+      </c>
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
@@ -8659,14 +10101,20 @@
         <v>1.25</v>
       </c>
       <c r="D267" s="37"/>
-      <c r="E267" s="9"/>
+      <c r="E267" s="9">
+        <f>SUM(C267,E266)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>192.5</v>
+      </c>
       <c r="F267" s="20"/>
       <c r="G267" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H267" s="37"/>
-      <c r="I267" s="9"/>
+      <c r="I267" s="9">
+        <f t="shared" si="3"/>
+        <v>158.5</v>
+      </c>
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
@@ -8679,14 +10127,20 @@
         <v>1.25</v>
       </c>
       <c r="D268" s="37"/>
-      <c r="E268" s="9"/>
+      <c r="E268" s="9">
+        <f>SUM(C268,E267)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>193.75</v>
+      </c>
       <c r="F268" s="20"/>
       <c r="G268" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H268" s="37"/>
-      <c r="I268" s="9"/>
+      <c r="I268" s="9">
+        <f t="shared" si="3"/>
+        <v>159.75</v>
+      </c>
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
@@ -8699,14 +10153,20 @@
         <v>1.25</v>
       </c>
       <c r="D269" s="37"/>
-      <c r="E269" s="9"/>
+      <c r="E269" s="9">
+        <f>SUM(C269,E268)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>195</v>
+      </c>
       <c r="F269" s="20"/>
       <c r="G269" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H269" s="37"/>
-      <c r="I269" s="9"/>
+      <c r="I269" s="9">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
@@ -8719,14 +10179,20 @@
         <v>1.25</v>
       </c>
       <c r="D270" s="37"/>
-      <c r="E270" s="9"/>
+      <c r="E270" s="9">
+        <f>SUM(C270,E269)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>196.25</v>
+      </c>
       <c r="F270" s="20"/>
       <c r="G270" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H270" s="37"/>
-      <c r="I270" s="9"/>
+      <c r="I270" s="9">
+        <f t="shared" ref="I270:I304" si="4">SUM(G270,I269)-H270</f>
+        <v>162.25</v>
+      </c>
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
@@ -8739,14 +10205,20 @@
         <v>1.25</v>
       </c>
       <c r="D271" s="37"/>
-      <c r="E271" s="9"/>
+      <c r="E271" s="9">
+        <f>SUM(C271,E270)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>197.5</v>
+      </c>
       <c r="F271" s="20"/>
       <c r="G271" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H271" s="37"/>
-      <c r="I271" s="9"/>
+      <c r="I271" s="9">
+        <f t="shared" si="4"/>
+        <v>163.5</v>
+      </c>
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
@@ -8759,14 +10231,20 @@
         <v>1.25</v>
       </c>
       <c r="D272" s="37"/>
-      <c r="E272" s="9"/>
+      <c r="E272" s="9">
+        <f>SUM(C272,E271)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>198.75</v>
+      </c>
       <c r="F272" s="20"/>
       <c r="G272" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H272" s="37"/>
-      <c r="I272" s="9"/>
+      <c r="I272" s="9">
+        <f t="shared" si="4"/>
+        <v>164.75</v>
+      </c>
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
@@ -8779,14 +10257,20 @@
         <v>1.25</v>
       </c>
       <c r="D273" s="37"/>
-      <c r="E273" s="9"/>
+      <c r="E273" s="9">
+        <f>SUM(C273,E272)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>200</v>
+      </c>
       <c r="F273" s="20"/>
       <c r="G273" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H273" s="37"/>
-      <c r="I273" s="9"/>
+      <c r="I273" s="9">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
@@ -8795,7 +10279,7 @@
         <v>42705</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -8803,26 +10287,33 @@
       <c r="D274" s="37">
         <v>5</v>
       </c>
-      <c r="E274" s="9"/>
+      <c r="E274" s="9">
+        <f>SUM(C274,E273)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>196.25</v>
+      </c>
       <c r="F274" s="20"/>
       <c r="G274" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H274" s="37"/>
-      <c r="I274" s="9"/>
+      <c r="I274" s="9">
+        <f t="shared" si="4"/>
+        <v>167.25</v>
+      </c>
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
       <c r="D275" s="37"/>
-      <c r="E275" s="32" t="s">
-        <v>32</v>
+      <c r="E275" s="9">
+        <f>SUM(C275,E274)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>196.25</v>
       </c>
       <c r="F275" s="20"/>
       <c r="G275" s="39" t="str">
@@ -8830,8 +10321,9 @@
         <v/>
       </c>
       <c r="H275" s="37"/>
-      <c r="I275" s="32" t="s">
-        <v>32</v>
+      <c r="I275" s="9">
+        <f t="shared" si="4"/>
+        <v>167.25</v>
       </c>
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
@@ -8845,14 +10337,20 @@
         <v>1.25</v>
       </c>
       <c r="D276" s="37"/>
-      <c r="E276" s="9"/>
+      <c r="E276" s="9">
+        <f>SUM(C276,E275)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>197.5</v>
+      </c>
       <c r="F276" s="20"/>
       <c r="G276" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H276" s="37"/>
-      <c r="I276" s="9"/>
+      <c r="I276" s="9">
+        <f t="shared" si="4"/>
+        <v>168.5</v>
+      </c>
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
@@ -8865,14 +10363,20 @@
         <v>1.25</v>
       </c>
       <c r="D277" s="37"/>
-      <c r="E277" s="9"/>
+      <c r="E277" s="9">
+        <f>SUM(C277,E276)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>198.75</v>
+      </c>
       <c r="F277" s="20"/>
       <c r="G277" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H277" s="37"/>
-      <c r="I277" s="9"/>
+      <c r="I277" s="9">
+        <f t="shared" si="4"/>
+        <v>169.75</v>
+      </c>
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
@@ -8885,14 +10389,20 @@
         <v>1.25</v>
       </c>
       <c r="D278" s="37"/>
-      <c r="E278" s="9"/>
+      <c r="E278" s="9">
+        <f>SUM(C278,E277)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>200</v>
+      </c>
       <c r="F278" s="20"/>
       <c r="G278" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H278" s="37"/>
-      <c r="I278" s="9"/>
+      <c r="I278" s="9">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
@@ -8905,14 +10415,20 @@
         <v>1.25</v>
       </c>
       <c r="D279" s="37"/>
-      <c r="E279" s="9"/>
+      <c r="E279" s="9">
+        <f>SUM(C279,E278)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>201.25</v>
+      </c>
       <c r="F279" s="20"/>
       <c r="G279" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H279" s="37"/>
-      <c r="I279" s="9"/>
+      <c r="I279" s="9">
+        <f t="shared" si="4"/>
+        <v>172.25</v>
+      </c>
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
@@ -8925,14 +10441,20 @@
         <v>1.25</v>
       </c>
       <c r="D280" s="37"/>
-      <c r="E280" s="9"/>
+      <c r="E280" s="9">
+        <f>SUM(C280,E279)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>202.5</v>
+      </c>
       <c r="F280" s="20"/>
       <c r="G280" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H280" s="37"/>
-      <c r="I280" s="9"/>
+      <c r="I280" s="9">
+        <f t="shared" si="4"/>
+        <v>173.5</v>
+      </c>
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
@@ -8945,14 +10467,20 @@
         <v>1.25</v>
       </c>
       <c r="D281" s="37"/>
-      <c r="E281" s="9"/>
+      <c r="E281" s="9">
+        <f>SUM(C281,E280)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>203.75</v>
+      </c>
       <c r="F281" s="20"/>
       <c r="G281" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H281" s="37"/>
-      <c r="I281" s="9"/>
+      <c r="I281" s="9">
+        <f t="shared" si="4"/>
+        <v>174.75</v>
+      </c>
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
@@ -8965,14 +10493,20 @@
         <v>1.25</v>
       </c>
       <c r="D282" s="37"/>
-      <c r="E282" s="9"/>
+      <c r="E282" s="9">
+        <f>SUM(C282,E281)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>205</v>
+      </c>
       <c r="F282" s="20"/>
       <c r="G282" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H282" s="37"/>
-      <c r="I282" s="9"/>
+      <c r="I282" s="9">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
@@ -8985,14 +10519,20 @@
         <v>1.25</v>
       </c>
       <c r="D283" s="37"/>
-      <c r="E283" s="9"/>
+      <c r="E283" s="9">
+        <f>SUM(C283,E282)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>206.25</v>
+      </c>
       <c r="F283" s="20"/>
       <c r="G283" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H283" s="37"/>
-      <c r="I283" s="9"/>
+      <c r="I283" s="9">
+        <f t="shared" si="4"/>
+        <v>177.25</v>
+      </c>
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
@@ -9005,14 +10545,20 @@
         <v>1.25</v>
       </c>
       <c r="D284" s="37"/>
-      <c r="E284" s="9"/>
+      <c r="E284" s="9">
+        <f>SUM(C284,E283)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>207.5</v>
+      </c>
       <c r="F284" s="20"/>
       <c r="G284" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H284" s="37"/>
-      <c r="I284" s="9"/>
+      <c r="I284" s="9">
+        <f t="shared" si="4"/>
+        <v>178.5</v>
+      </c>
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
@@ -9025,14 +10571,20 @@
         <v>1.25</v>
       </c>
       <c r="D285" s="37"/>
-      <c r="E285" s="9"/>
+      <c r="E285" s="9">
+        <f>SUM(C285,E284)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>208.75</v>
+      </c>
       <c r="F285" s="20"/>
       <c r="G285" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H285" s="37"/>
-      <c r="I285" s="9"/>
+      <c r="I285" s="9">
+        <f t="shared" si="4"/>
+        <v>179.75</v>
+      </c>
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
@@ -9045,14 +10597,20 @@
         <v>1.25</v>
       </c>
       <c r="D286" s="37"/>
-      <c r="E286" s="9"/>
+      <c r="E286" s="9">
+        <f>SUM(C286,E285)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>210</v>
+      </c>
       <c r="F286" s="20"/>
       <c r="G286" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H286" s="37"/>
-      <c r="I286" s="9"/>
+      <c r="I286" s="9">
+        <f t="shared" si="4"/>
+        <v>181</v>
+      </c>
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
@@ -9061,7 +10619,7 @@
         <v>43070</v>
       </c>
       <c r="B287" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C287" s="13">
         <v>1.25</v>
@@ -9069,26 +10627,33 @@
       <c r="D287" s="37">
         <v>5</v>
       </c>
-      <c r="E287" s="9"/>
+      <c r="E287" s="9">
+        <f>SUM(C287,E286)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>206.25</v>
+      </c>
       <c r="F287" s="20"/>
       <c r="G287" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H287" s="37"/>
-      <c r="I287" s="9"/>
+      <c r="I287" s="9">
+        <f t="shared" si="4"/>
+        <v>182.25</v>
+      </c>
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
       <c r="D288" s="37"/>
-      <c r="E288" s="32" t="s">
-        <v>32</v>
+      <c r="E288" s="9">
+        <f>SUM(C288,E287)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>206.25</v>
       </c>
       <c r="F288" s="20"/>
       <c r="G288" s="39" t="str">
@@ -9096,8 +10661,9 @@
         <v/>
       </c>
       <c r="H288" s="37"/>
-      <c r="I288" s="32" t="s">
-        <v>32</v>
+      <c r="I288" s="9">
+        <f t="shared" si="4"/>
+        <v>182.25</v>
       </c>
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
@@ -9111,14 +10677,20 @@
         <v>1.25</v>
       </c>
       <c r="D289" s="37"/>
-      <c r="E289" s="9"/>
+      <c r="E289" s="9">
+        <f>SUM(C289,E288)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>207.5</v>
+      </c>
       <c r="F289" s="20"/>
       <c r="G289" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H289" s="37"/>
-      <c r="I289" s="9"/>
+      <c r="I289" s="9">
+        <f t="shared" si="4"/>
+        <v>183.5</v>
+      </c>
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
@@ -9131,14 +10703,20 @@
         <v>1.25</v>
       </c>
       <c r="D290" s="37"/>
-      <c r="E290" s="9"/>
+      <c r="E290" s="9">
+        <f>SUM(C290,E289)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>208.75</v>
+      </c>
       <c r="F290" s="20"/>
       <c r="G290" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H290" s="37"/>
-      <c r="I290" s="9"/>
+      <c r="I290" s="9">
+        <f t="shared" si="4"/>
+        <v>184.75</v>
+      </c>
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
@@ -9151,14 +10729,20 @@
         <v>1.25</v>
       </c>
       <c r="D291" s="37"/>
-      <c r="E291" s="9"/>
+      <c r="E291" s="9">
+        <f>SUM(C291,E290)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>210</v>
+      </c>
       <c r="F291" s="20"/>
       <c r="G291" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H291" s="37"/>
-      <c r="I291" s="9"/>
+      <c r="I291" s="9">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
@@ -9171,14 +10755,20 @@
         <v>1.25</v>
       </c>
       <c r="D292" s="37"/>
-      <c r="E292" s="9"/>
+      <c r="E292" s="9">
+        <f>SUM(C292,E291)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>211.25</v>
+      </c>
       <c r="F292" s="20"/>
       <c r="G292" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H292" s="37"/>
-      <c r="I292" s="9"/>
+      <c r="I292" s="9">
+        <f t="shared" si="4"/>
+        <v>187.25</v>
+      </c>
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
@@ -9191,14 +10781,20 @@
         <v>1.25</v>
       </c>
       <c r="D293" s="37"/>
-      <c r="E293" s="9"/>
+      <c r="E293" s="9">
+        <f>SUM(C293,E292)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>212.5</v>
+      </c>
       <c r="F293" s="20"/>
       <c r="G293" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H293" s="37"/>
-      <c r="I293" s="9"/>
+      <c r="I293" s="9">
+        <f t="shared" si="4"/>
+        <v>188.5</v>
+      </c>
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
@@ -9211,14 +10807,20 @@
         <v>1.25</v>
       </c>
       <c r="D294" s="37"/>
-      <c r="E294" s="9"/>
+      <c r="E294" s="9">
+        <f>SUM(C294,E293)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>213.75</v>
+      </c>
       <c r="F294" s="20"/>
       <c r="G294" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H294" s="37"/>
-      <c r="I294" s="9"/>
+      <c r="I294" s="9">
+        <f t="shared" si="4"/>
+        <v>189.75</v>
+      </c>
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
@@ -9231,14 +10833,20 @@
         <v>1.25</v>
       </c>
       <c r="D295" s="37"/>
-      <c r="E295" s="9"/>
+      <c r="E295" s="9">
+        <f>SUM(C295,E294)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>215</v>
+      </c>
       <c r="F295" s="20"/>
       <c r="G295" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H295" s="37"/>
-      <c r="I295" s="9"/>
+      <c r="I295" s="9">
+        <f t="shared" si="4"/>
+        <v>191</v>
+      </c>
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
@@ -9251,14 +10859,20 @@
         <v>1.25</v>
       </c>
       <c r="D296" s="37"/>
-      <c r="E296" s="9"/>
+      <c r="E296" s="9">
+        <f>SUM(C296,E295)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>216.25</v>
+      </c>
       <c r="F296" s="20"/>
       <c r="G296" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H296" s="37"/>
-      <c r="I296" s="9"/>
+      <c r="I296" s="9">
+        <f t="shared" si="4"/>
+        <v>192.25</v>
+      </c>
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
@@ -9271,14 +10885,20 @@
         <v>1.25</v>
       </c>
       <c r="D297" s="37"/>
-      <c r="E297" s="9"/>
+      <c r="E297" s="9">
+        <f>SUM(C297,E296)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>217.5</v>
+      </c>
       <c r="F297" s="20"/>
       <c r="G297" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H297" s="37"/>
-      <c r="I297" s="9"/>
+      <c r="I297" s="9">
+        <f t="shared" si="4"/>
+        <v>193.5</v>
+      </c>
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
@@ -9291,70 +10911,85 @@
         <v>1.25</v>
       </c>
       <c r="D298" s="37"/>
-      <c r="E298" s="9"/>
+      <c r="E298" s="9">
+        <f>SUM(C298,E297)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>218.75</v>
+      </c>
       <c r="F298" s="20"/>
       <c r="G298" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H298" s="37"/>
-      <c r="I298" s="9"/>
+      <c r="I298" s="9">
+        <f t="shared" si="4"/>
+        <v>194.75</v>
+      </c>
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="38">
-        <v>43405</v>
+        <v>43409</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
-        <v>1.25</v>
+        <v>1.083</v>
       </c>
       <c r="D299" s="37"/>
-      <c r="E299" s="9"/>
+      <c r="E299" s="9">
+        <f>SUM(C299,E298)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>219.833</v>
+      </c>
       <c r="F299" s="20"/>
       <c r="G299" s="39">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.083</v>
       </c>
       <c r="H299" s="37"/>
-      <c r="I299" s="9"/>
+      <c r="I299" s="9">
+        <f t="shared" si="4"/>
+        <v>195.833</v>
+      </c>
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A300" s="38">
-        <v>43435</v>
-      </c>
-      <c r="B300" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C300" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D300" s="37">
-        <v>5</v>
-      </c>
-      <c r="E300" s="9"/>
+      <c r="A300" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B300" s="20"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="37"/>
+      <c r="E300" s="9">
+        <f>SUM(C300,E299)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>219.833</v>
+      </c>
       <c r="F300" s="20"/>
-      <c r="G300" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G300" s="39" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H300" s="37"/>
-      <c r="I300" s="9"/>
+      <c r="I300" s="9">
+        <f t="shared" si="4"/>
+        <v>195.833</v>
+      </c>
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A301" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B301" s="20"/>
+      <c r="A301" s="38">
+        <v>43862</v>
+      </c>
+      <c r="B301" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C301" s="13"/>
       <c r="D301" s="37"/>
-      <c r="E301" s="32" t="s">
-        <v>32</v>
+      <c r="E301" s="9">
+        <f>SUM(C301,E300)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>219.833</v>
       </c>
       <c r="F301" s="20"/>
       <c r="G301" s="39" t="str">
@@ -9362,146 +10997,149 @@
         <v/>
       </c>
       <c r="H301" s="37"/>
-      <c r="I301" s="32" t="s">
-        <v>32</v>
+      <c r="I301" s="9">
+        <f t="shared" si="4"/>
+        <v>195.833</v>
       </c>
       <c r="J301" s="11"/>
-      <c r="K301" s="20"/>
+      <c r="K301" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302" s="38">
-        <v>43466</v>
+      <c r="A302" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="B302" s="20"/>
-      <c r="C302" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C302" s="13"/>
       <c r="D302" s="37"/>
-      <c r="E302" s="9"/>
+      <c r="E302" s="9">
+        <f>SUM(C302,E301)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>219.833</v>
+      </c>
       <c r="F302" s="20"/>
-      <c r="G302" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G302" s="39" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H302" s="37"/>
-      <c r="I302" s="9"/>
+      <c r="I302" s="9">
+        <f t="shared" si="4"/>
+        <v>195.833</v>
+      </c>
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A303" s="38">
-        <v>43497</v>
+      <c r="A303" s="51" t="s">
+        <v>91</v>
       </c>
       <c r="B303" s="20"/>
-      <c r="C303" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C303" s="13"/>
       <c r="D303" s="37"/>
-      <c r="E303" s="9"/>
+      <c r="E303" s="9">
+        <f>SUM(C303,E302)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>219.833</v>
+      </c>
       <c r="F303" s="20"/>
-      <c r="G303" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G303" s="13"/>
       <c r="H303" s="37"/>
-      <c r="I303" s="9"/>
+      <c r="I303" s="9">
+        <f t="shared" si="4"/>
+        <v>195.833</v>
+      </c>
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="38">
-        <v>43525</v>
-      </c>
-      <c r="B304" s="20"/>
-      <c r="C304" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D304" s="37"/>
-      <c r="E304" s="9"/>
+        <v>44958</v>
+      </c>
+      <c r="B304" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C304" s="13"/>
+      <c r="D304" s="37">
+        <v>4</v>
+      </c>
+      <c r="E304" s="9">
+        <f>SUM(C304,E303)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>215.833</v>
+      </c>
       <c r="F304" s="20"/>
-      <c r="G304" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G304" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H304" s="37"/>
-      <c r="I304" s="9"/>
+      <c r="I304" s="9">
+        <f t="shared" si="4"/>
+        <v>195.833</v>
+      </c>
       <c r="J304" s="11"/>
-      <c r="K304" s="20"/>
+      <c r="K304" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A305" s="38">
-        <v>43556</v>
-      </c>
-      <c r="B305" s="20"/>
-      <c r="C305" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D305" s="37"/>
-      <c r="E305" s="9"/>
-      <c r="F305" s="20"/>
-      <c r="G305" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H305" s="37"/>
+      <c r="A305" s="53"/>
+      <c r="B305" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C305" s="55"/>
+      <c r="D305" s="54"/>
+      <c r="E305" s="56"/>
+      <c r="F305" s="11"/>
+      <c r="G305" s="13"/>
+      <c r="H305" s="11"/>
       <c r="I305" s="9"/>
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A306" s="38">
-        <v>43586</v>
-      </c>
-      <c r="B306" s="20"/>
-      <c r="C306" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D306" s="37"/>
+      <c r="A306" s="38"/>
+      <c r="B306" s="11"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="57" t="s">
+        <v>100</v>
+      </c>
       <c r="E306" s="9"/>
-      <c r="F306" s="20"/>
-      <c r="G306" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H306" s="37"/>
+      <c r="F306" s="11"/>
+      <c r="G306" s="13"/>
+      <c r="H306" s="57" t="s">
+        <v>99</v>
+      </c>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307" s="38">
-        <v>43617</v>
-      </c>
-      <c r="B307" s="20"/>
-      <c r="C307" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D307" s="37"/>
+      <c r="A307" s="38"/>
+      <c r="B307" s="11"/>
+      <c r="C307" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D307" s="11"/>
       <c r="E307" s="9"/>
-      <c r="F307" s="20"/>
-      <c r="G307" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H307" s="37"/>
-      <c r="I307" s="9"/>
-      <c r="J307" s="11"/>
-      <c r="K307" s="20"/>
+      <c r="F307" s="11"/>
+      <c r="G307" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H307" s="54"/>
+      <c r="I307" s="56"/>
+      <c r="J307" s="54"/>
+      <c r="K307" s="58"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A308" s="38">
-        <v>43647</v>
-      </c>
+      <c r="A308" s="38"/>
       <c r="B308" s="20"/>
-      <c r="C308" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C308" s="13"/>
       <c r="D308" s="37"/>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G308" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H308" s="37"/>
       <c r="I308" s="9"/>
@@ -9509,19 +11147,15 @@
       <c r="K308" s="20"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A309" s="38">
-        <v>43678</v>
-      </c>
+      <c r="A309" s="38"/>
       <c r="B309" s="20"/>
-      <c r="C309" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C309" s="13"/>
       <c r="D309" s="37"/>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G309" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H309" s="37"/>
       <c r="I309" s="9"/>
@@ -9529,19 +11163,15 @@
       <c r="K309" s="20"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A310" s="38">
-        <v>43709</v>
-      </c>
+      <c r="A310" s="38"/>
       <c r="B310" s="20"/>
-      <c r="C310" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C310" s="13"/>
       <c r="D310" s="37"/>
       <c r="E310" s="9"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G310" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H310" s="37"/>
       <c r="I310" s="9"/>
@@ -9549,19 +11179,15 @@
       <c r="K310" s="20"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A311" s="38">
-        <v>43739</v>
-      </c>
+      <c r="A311" s="38"/>
       <c r="B311" s="20"/>
-      <c r="C311" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C311" s="13"/>
       <c r="D311" s="37"/>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G311" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H311" s="37"/>
       <c r="I311" s="9"/>
@@ -9569,19 +11195,15 @@
       <c r="K311" s="20"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A312" s="38">
-        <v>43770</v>
-      </c>
+      <c r="A312" s="38"/>
       <c r="B312" s="20"/>
-      <c r="C312" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C312" s="13"/>
       <c r="D312" s="37"/>
       <c r="E312" s="9"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G312" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H312" s="37"/>
       <c r="I312" s="9"/>
@@ -9589,23 +11211,15 @@
       <c r="K312" s="20"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A313" s="38">
-        <v>43800</v>
-      </c>
-      <c r="B313" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C313" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D313" s="37">
-        <v>5</v>
-      </c>
+      <c r="A313" s="38"/>
+      <c r="B313" s="20"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="37"/>
       <c r="E313" s="9"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G313" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H313" s="37"/>
       <c r="I313" s="9"/>
@@ -9613,1134 +11227,36 @@
       <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A314" s="51" t="s">
-        <v>49</v>
-      </c>
+      <c r="A314" s="38"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
       <c r="D314" s="37"/>
-      <c r="E314" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E314" s="9"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="39" t="str">
+      <c r="G314" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H314" s="37"/>
-      <c r="I314" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I314" s="9"/>
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A315" s="38">
-        <v>43831</v>
-      </c>
+      <c r="A315" s="38"/>
       <c r="B315" s="20"/>
-      <c r="C315" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C315" s="13"/>
       <c r="D315" s="37"/>
       <c r="E315" s="9"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G315" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H315" s="37"/>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A316" s="38">
-        <v>43862</v>
-      </c>
-      <c r="B316" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C316" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D316" s="37"/>
-      <c r="E316" s="9"/>
-      <c r="F316" s="20"/>
-      <c r="G316" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H316" s="37"/>
-      <c r="I316" s="9"/>
-      <c r="J316" s="11"/>
-      <c r="K316" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A317" s="38">
-        <v>43891</v>
-      </c>
-      <c r="B317" s="20"/>
-      <c r="C317" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D317" s="37"/>
-      <c r="E317" s="9"/>
-      <c r="F317" s="20"/>
-      <c r="G317" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H317" s="37"/>
-      <c r="I317" s="9"/>
-      <c r="J317" s="11"/>
-      <c r="K317" s="20"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A318" s="38">
-        <v>43922</v>
-      </c>
-      <c r="B318" s="20"/>
-      <c r="C318" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D318" s="37"/>
-      <c r="E318" s="9"/>
-      <c r="F318" s="20"/>
-      <c r="G318" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H318" s="37"/>
-      <c r="I318" s="9"/>
-      <c r="J318" s="11"/>
-      <c r="K318" s="20"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A319" s="38">
-        <v>43952</v>
-      </c>
-      <c r="B319" s="20"/>
-      <c r="C319" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D319" s="37"/>
-      <c r="E319" s="9"/>
-      <c r="F319" s="20"/>
-      <c r="G319" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H319" s="37"/>
-      <c r="I319" s="9"/>
-      <c r="J319" s="11"/>
-      <c r="K319" s="20"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A320" s="38">
-        <v>43983</v>
-      </c>
-      <c r="B320" s="20"/>
-      <c r="C320" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D320" s="37"/>
-      <c r="E320" s="9"/>
-      <c r="F320" s="20"/>
-      <c r="G320" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H320" s="37"/>
-      <c r="I320" s="9"/>
-      <c r="J320" s="11"/>
-      <c r="K320" s="20"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A321" s="38">
-        <v>44013</v>
-      </c>
-      <c r="B321" s="20"/>
-      <c r="C321" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D321" s="37"/>
-      <c r="E321" s="9"/>
-      <c r="F321" s="20"/>
-      <c r="G321" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H321" s="37"/>
-      <c r="I321" s="9"/>
-      <c r="J321" s="11"/>
-      <c r="K321" s="20"/>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A322" s="38">
-        <v>44044</v>
-      </c>
-      <c r="B322" s="20"/>
-      <c r="C322" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D322" s="37"/>
-      <c r="E322" s="9"/>
-      <c r="F322" s="20"/>
-      <c r="G322" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H322" s="37"/>
-      <c r="I322" s="9"/>
-      <c r="J322" s="11"/>
-      <c r="K322" s="20"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323" s="38">
-        <v>44075</v>
-      </c>
-      <c r="B323" s="20"/>
-      <c r="C323" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D323" s="37"/>
-      <c r="E323" s="9"/>
-      <c r="F323" s="20"/>
-      <c r="G323" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H323" s="37"/>
-      <c r="I323" s="9"/>
-      <c r="J323" s="11"/>
-      <c r="K323" s="20"/>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A324" s="38">
-        <v>44105</v>
-      </c>
-      <c r="B324" s="20"/>
-      <c r="C324" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D324" s="37"/>
-      <c r="E324" s="9"/>
-      <c r="F324" s="20"/>
-      <c r="G324" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H324" s="37"/>
-      <c r="I324" s="9"/>
-      <c r="J324" s="11"/>
-      <c r="K324" s="20"/>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A325" s="38">
-        <v>44136</v>
-      </c>
-      <c r="B325" s="20"/>
-      <c r="C325" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D325" s="37"/>
-      <c r="E325" s="9"/>
-      <c r="F325" s="20"/>
-      <c r="G325" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H325" s="37"/>
-      <c r="I325" s="9"/>
-      <c r="J325" s="11"/>
-      <c r="K325" s="20"/>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A326" s="38">
-        <v>44166</v>
-      </c>
-      <c r="B326" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C326" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D326" s="37">
-        <v>5</v>
-      </c>
-      <c r="E326" s="9"/>
-      <c r="F326" s="20"/>
-      <c r="G326" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H326" s="37"/>
-      <c r="I326" s="9"/>
-      <c r="J326" s="11"/>
-      <c r="K326" s="20"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A327" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B327" s="20"/>
-      <c r="C327" s="13"/>
-      <c r="D327" s="37"/>
-      <c r="E327" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F327" s="20"/>
-      <c r="G327" s="39" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H327" s="37"/>
-      <c r="I327" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J327" s="11"/>
-      <c r="K327" s="20"/>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328" s="38">
-        <v>44197</v>
-      </c>
-      <c r="B328" s="20"/>
-      <c r="C328" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D328" s="37"/>
-      <c r="E328" s="9"/>
-      <c r="F328" s="20"/>
-      <c r="G328" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H328" s="37"/>
-      <c r="I328" s="9"/>
-      <c r="J328" s="11"/>
-      <c r="K328" s="20"/>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329" s="38">
-        <v>44228</v>
-      </c>
-      <c r="B329" s="20"/>
-      <c r="C329" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D329" s="37"/>
-      <c r="E329" s="9"/>
-      <c r="F329" s="20"/>
-      <c r="G329" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H329" s="37"/>
-      <c r="I329" s="9"/>
-      <c r="J329" s="11"/>
-      <c r="K329" s="20"/>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="38">
-        <v>44256</v>
-      </c>
-      <c r="B330" s="20"/>
-      <c r="C330" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D330" s="37"/>
-      <c r="E330" s="9"/>
-      <c r="F330" s="20"/>
-      <c r="G330" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H330" s="37"/>
-      <c r="I330" s="9"/>
-      <c r="J330" s="11"/>
-      <c r="K330" s="20"/>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331" s="38">
-        <v>44287</v>
-      </c>
-      <c r="B331" s="20"/>
-      <c r="C331" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D331" s="37"/>
-      <c r="E331" s="9"/>
-      <c r="F331" s="20"/>
-      <c r="G331" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H331" s="37"/>
-      <c r="I331" s="9"/>
-      <c r="J331" s="11"/>
-      <c r="K331" s="20"/>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="38">
-        <v>44317</v>
-      </c>
-      <c r="B332" s="20"/>
-      <c r="C332" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D332" s="37"/>
-      <c r="E332" s="9"/>
-      <c r="F332" s="20"/>
-      <c r="G332" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H332" s="37"/>
-      <c r="I332" s="9"/>
-      <c r="J332" s="11"/>
-      <c r="K332" s="20"/>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A333" s="38">
-        <v>44348</v>
-      </c>
-      <c r="B333" s="20"/>
-      <c r="C333" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D333" s="37"/>
-      <c r="E333" s="9"/>
-      <c r="F333" s="20"/>
-      <c r="G333" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H333" s="37"/>
-      <c r="I333" s="9"/>
-      <c r="J333" s="11"/>
-      <c r="K333" s="20"/>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334" s="38">
-        <v>44378</v>
-      </c>
-      <c r="B334" s="20"/>
-      <c r="C334" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D334" s="37"/>
-      <c r="E334" s="9"/>
-      <c r="F334" s="20"/>
-      <c r="G334" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H334" s="37"/>
-      <c r="I334" s="9"/>
-      <c r="J334" s="11"/>
-      <c r="K334" s="20"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A335" s="38">
-        <v>44409</v>
-      </c>
-      <c r="B335" s="20"/>
-      <c r="C335" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D335" s="37"/>
-      <c r="E335" s="9"/>
-      <c r="F335" s="20"/>
-      <c r="G335" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H335" s="37"/>
-      <c r="I335" s="9"/>
-      <c r="J335" s="11"/>
-      <c r="K335" s="20"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="38">
-        <v>44440</v>
-      </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D336" s="37"/>
-      <c r="E336" s="9"/>
-      <c r="F336" s="20"/>
-      <c r="G336" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H336" s="37"/>
-      <c r="I336" s="9"/>
-      <c r="J336" s="11"/>
-      <c r="K336" s="20"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="38">
-        <v>44470</v>
-      </c>
-      <c r="B337" s="20"/>
-      <c r="C337" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D337" s="37"/>
-      <c r="E337" s="9"/>
-      <c r="F337" s="20"/>
-      <c r="G337" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H337" s="37"/>
-      <c r="I337" s="9"/>
-      <c r="J337" s="11"/>
-      <c r="K337" s="20"/>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338" s="38">
-        <v>44501</v>
-      </c>
-      <c r="B338" s="20"/>
-      <c r="C338" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D338" s="37"/>
-      <c r="E338" s="9"/>
-      <c r="F338" s="20"/>
-      <c r="G338" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H338" s="37"/>
-      <c r="I338" s="9"/>
-      <c r="J338" s="11"/>
-      <c r="K338" s="20"/>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A339" s="38">
-        <v>44531</v>
-      </c>
-      <c r="B339" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C339" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D339" s="37">
-        <v>5</v>
-      </c>
-      <c r="E339" s="9"/>
-      <c r="F339" s="20"/>
-      <c r="G339" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H339" s="37"/>
-      <c r="I339" s="9"/>
-      <c r="J339" s="11"/>
-      <c r="K339" s="20"/>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B340" s="20"/>
-      <c r="C340" s="13"/>
-      <c r="D340" s="37"/>
-      <c r="E340" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F340" s="20"/>
-      <c r="G340" s="39" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H340" s="37"/>
-      <c r="I340" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J340" s="11"/>
-      <c r="K340" s="20"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A341" s="38">
-        <v>44562</v>
-      </c>
-      <c r="B341" s="20"/>
-      <c r="C341" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D341" s="37"/>
-      <c r="E341" s="9"/>
-      <c r="F341" s="20"/>
-      <c r="G341" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H341" s="37"/>
-      <c r="I341" s="9"/>
-      <c r="J341" s="11"/>
-      <c r="K341" s="20"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342" s="38">
-        <v>44593</v>
-      </c>
-      <c r="B342" s="20"/>
-      <c r="C342" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D342" s="37"/>
-      <c r="E342" s="9"/>
-      <c r="F342" s="20"/>
-      <c r="G342" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H342" s="37"/>
-      <c r="I342" s="9"/>
-      <c r="J342" s="11"/>
-      <c r="K342" s="20"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343" s="38">
-        <v>44621</v>
-      </c>
-      <c r="B343" s="20"/>
-      <c r="C343" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D343" s="37"/>
-      <c r="E343" s="9"/>
-      <c r="F343" s="20"/>
-      <c r="G343" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H343" s="37"/>
-      <c r="I343" s="9"/>
-      <c r="J343" s="11"/>
-      <c r="K343" s="20"/>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="38">
-        <v>44652</v>
-      </c>
-      <c r="B344" s="20"/>
-      <c r="C344" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D344" s="37"/>
-      <c r="E344" s="9"/>
-      <c r="F344" s="20"/>
-      <c r="G344" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H344" s="37"/>
-      <c r="I344" s="9"/>
-      <c r="J344" s="11"/>
-      <c r="K344" s="20"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345" s="38">
-        <v>44682</v>
-      </c>
-      <c r="B345" s="20"/>
-      <c r="C345" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D345" s="37"/>
-      <c r="E345" s="9"/>
-      <c r="F345" s="20"/>
-      <c r="G345" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H345" s="37"/>
-      <c r="I345" s="9"/>
-      <c r="J345" s="11"/>
-      <c r="K345" s="20"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A346" s="38">
-        <v>44713</v>
-      </c>
-      <c r="B346" s="20"/>
-      <c r="C346" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D346" s="37"/>
-      <c r="E346" s="9"/>
-      <c r="F346" s="20"/>
-      <c r="G346" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H346" s="37"/>
-      <c r="I346" s="9"/>
-      <c r="J346" s="11"/>
-      <c r="K346" s="20"/>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347" s="38">
-        <v>44743</v>
-      </c>
-      <c r="B347" s="20"/>
-      <c r="C347" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D347" s="37"/>
-      <c r="E347" s="9"/>
-      <c r="F347" s="20"/>
-      <c r="G347" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H347" s="37"/>
-      <c r="I347" s="9"/>
-      <c r="J347" s="11"/>
-      <c r="K347" s="20"/>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A348" s="38">
-        <v>44774</v>
-      </c>
-      <c r="B348" s="20"/>
-      <c r="C348" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D348" s="37"/>
-      <c r="E348" s="9"/>
-      <c r="F348" s="20"/>
-      <c r="G348" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H348" s="37"/>
-      <c r="I348" s="9"/>
-      <c r="J348" s="11"/>
-      <c r="K348" s="20"/>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A349" s="38">
-        <v>44805</v>
-      </c>
-      <c r="B349" s="20"/>
-      <c r="C349" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D349" s="37"/>
-      <c r="E349" s="9"/>
-      <c r="F349" s="20"/>
-      <c r="G349" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H349" s="37"/>
-      <c r="I349" s="9"/>
-      <c r="J349" s="11"/>
-      <c r="K349" s="20"/>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350" s="38">
-        <v>44835</v>
-      </c>
-      <c r="B350" s="20"/>
-      <c r="C350" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D350" s="37"/>
-      <c r="E350" s="9"/>
-      <c r="F350" s="20"/>
-      <c r="G350" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H350" s="37"/>
-      <c r="I350" s="9"/>
-      <c r="J350" s="11"/>
-      <c r="K350" s="20"/>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351" s="38">
-        <v>44866</v>
-      </c>
-      <c r="B351" s="20"/>
-      <c r="C351" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D351" s="37"/>
-      <c r="E351" s="9"/>
-      <c r="F351" s="20"/>
-      <c r="G351" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H351" s="37"/>
-      <c r="I351" s="9"/>
-      <c r="J351" s="11"/>
-      <c r="K351" s="20"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A352" s="38">
-        <v>44896</v>
-      </c>
-      <c r="B352" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C352" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D352" s="37">
-        <v>2</v>
-      </c>
-      <c r="E352" s="9"/>
-      <c r="F352" s="20"/>
-      <c r="G352" s="39">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H352" s="37"/>
-      <c r="I352" s="9"/>
-      <c r="J352" s="11"/>
-      <c r="K352" s="20"/>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A353" s="38"/>
-      <c r="B353" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C353" s="13"/>
-      <c r="D353" s="37">
-        <v>3</v>
-      </c>
-      <c r="E353" s="9"/>
-      <c r="F353" s="20"/>
-      <c r="G353" s="39" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H353" s="37"/>
-      <c r="I353" s="9"/>
-      <c r="J353" s="11"/>
-      <c r="K353" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A354" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B354" s="20"/>
-      <c r="C354" s="13"/>
-      <c r="D354" s="37"/>
-      <c r="E354" s="9"/>
-      <c r="F354" s="20"/>
-      <c r="G354" s="13"/>
-      <c r="H354" s="37"/>
-      <c r="I354" s="9"/>
-      <c r="J354" s="11"/>
-      <c r="K354" s="20"/>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A355" s="38">
-        <v>44927</v>
-      </c>
-      <c r="B355" s="20"/>
-      <c r="C355" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D355" s="37"/>
-      <c r="E355" s="9"/>
-      <c r="F355" s="20"/>
-      <c r="G355" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H355" s="37"/>
-      <c r="I355" s="9"/>
-      <c r="J355" s="11"/>
-      <c r="K355" s="20"/>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A356" s="38">
-        <v>44958</v>
-      </c>
-      <c r="B356" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C356" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D356" s="37">
-        <v>4</v>
-      </c>
-      <c r="E356" s="9"/>
-      <c r="F356" s="20"/>
-      <c r="G356" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H356" s="37"/>
-      <c r="I356" s="9"/>
-      <c r="J356" s="11"/>
-      <c r="K356" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A357" s="38">
-        <v>44986</v>
-      </c>
-      <c r="B357" s="20"/>
-      <c r="C357" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D357" s="37"/>
-      <c r="E357" s="9"/>
-      <c r="F357" s="20"/>
-      <c r="G357" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H357" s="37"/>
-      <c r="I357" s="9"/>
-      <c r="J357" s="11"/>
-      <c r="K357" s="20"/>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358" s="53"/>
-      <c r="B358" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C358" s="55"/>
-      <c r="D358" s="54"/>
-      <c r="E358" s="56"/>
-      <c r="F358" s="11"/>
-      <c r="G358" s="13"/>
-      <c r="H358" s="11"/>
-      <c r="I358" s="9"/>
-      <c r="J358" s="11"/>
-      <c r="K358" s="20"/>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359" s="38"/>
-      <c r="B359" s="11"/>
-      <c r="C359" s="13"/>
-      <c r="D359" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E359" s="9"/>
-      <c r="F359" s="11"/>
-      <c r="G359" s="13"/>
-      <c r="H359" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="I359" s="9"/>
-      <c r="J359" s="11"/>
-      <c r="K359" s="20"/>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="38"/>
-      <c r="B360" s="11"/>
-      <c r="C360" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D360" s="11"/>
-      <c r="E360" s="9"/>
-      <c r="F360" s="11"/>
-      <c r="G360" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="H360" s="54"/>
-      <c r="I360" s="56"/>
-      <c r="J360" s="54"/>
-      <c r="K360" s="58"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A361" s="38"/>
-      <c r="B361" s="20"/>
-      <c r="C361" s="13"/>
-      <c r="D361" s="37"/>
-      <c r="E361" s="9"/>
-      <c r="F361" s="20"/>
-      <c r="G361" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H361" s="37"/>
-      <c r="I361" s="9"/>
-      <c r="J361" s="11"/>
-      <c r="K361" s="20"/>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="38"/>
-      <c r="B362" s="20"/>
-      <c r="C362" s="13"/>
-      <c r="D362" s="37"/>
-      <c r="E362" s="9"/>
-      <c r="F362" s="20"/>
-      <c r="G362" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H362" s="37"/>
-      <c r="I362" s="9"/>
-      <c r="J362" s="11"/>
-      <c r="K362" s="20"/>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="38"/>
-      <c r="B363" s="20"/>
-      <c r="C363" s="13"/>
-      <c r="D363" s="37"/>
-      <c r="E363" s="9"/>
-      <c r="F363" s="20"/>
-      <c r="G363" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H363" s="37"/>
-      <c r="I363" s="9"/>
-      <c r="J363" s="11"/>
-      <c r="K363" s="20"/>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A364" s="38"/>
-      <c r="B364" s="20"/>
-      <c r="C364" s="13"/>
-      <c r="D364" s="37"/>
-      <c r="E364" s="9"/>
-      <c r="F364" s="20"/>
-      <c r="G364" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H364" s="37"/>
-      <c r="I364" s="9"/>
-      <c r="J364" s="11"/>
-      <c r="K364" s="20"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="38"/>
-      <c r="B365" s="20"/>
-      <c r="C365" s="13"/>
-      <c r="D365" s="37"/>
-      <c r="E365" s="9"/>
-      <c r="F365" s="20"/>
-      <c r="G365" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H365" s="37"/>
-      <c r="I365" s="9"/>
-      <c r="J365" s="11"/>
-      <c r="K365" s="20"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A366" s="38"/>
-      <c r="B366" s="20"/>
-      <c r="C366" s="13"/>
-      <c r="D366" s="37"/>
-      <c r="E366" s="9"/>
-      <c r="F366" s="20"/>
-      <c r="G366" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H366" s="37"/>
-      <c r="I366" s="9"/>
-      <c r="J366" s="11"/>
-      <c r="K366" s="20"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A367" s="38"/>
-      <c r="B367" s="20"/>
-      <c r="C367" s="13"/>
-      <c r="D367" s="37"/>
-      <c r="E367" s="9"/>
-      <c r="F367" s="20"/>
-      <c r="G367" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H367" s="37"/>
-      <c r="I367" s="9"/>
-      <c r="J367" s="11"/>
-      <c r="K367" s="20"/>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A368" s="38"/>
-      <c r="B368" s="20"/>
-      <c r="C368" s="13"/>
-      <c r="D368" s="37"/>
-      <c r="E368" s="9"/>
-      <c r="F368" s="20"/>
-      <c r="G368" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H368" s="37"/>
-      <c r="I368" s="9"/>
-      <c r="J368" s="11"/>
-      <c r="K368" s="20"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A369" s="38"/>
-      <c r="B369" s="20"/>
-      <c r="C369" s="13"/>
-      <c r="D369" s="37"/>
-      <c r="E369" s="9"/>
-      <c r="F369" s="20"/>
-      <c r="G369" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H369" s="37"/>
-      <c r="I369" s="9"/>
-      <c r="J369" s="11"/>
-      <c r="K369" s="20"/>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A370" s="38"/>
-      <c r="B370" s="20"/>
-      <c r="C370" s="13"/>
-      <c r="D370" s="37"/>
-      <c r="E370" s="9"/>
-      <c r="F370" s="20"/>
-      <c r="G370" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H370" s="37"/>
-      <c r="I370" s="9"/>
-      <c r="J370" s="11"/>
-      <c r="K370" s="20"/>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A371" s="38"/>
-      <c r="B371" s="20"/>
-      <c r="C371" s="13"/>
-      <c r="D371" s="37"/>
-      <c r="E371" s="9"/>
-      <c r="F371" s="20"/>
-      <c r="G371" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H371" s="37"/>
-      <c r="I371" s="9"/>
-      <c r="J371" s="11"/>
-      <c r="K371" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10756,7 +11272,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -10771,10 +11287,10 @@
 CITY OF TAGAYTAY
 EMPLOYEE'S LEAVE CARD</oddHeader>
     <oddFooter>&amp;L
-PREPARED BY: ___________________
+PREPARED BY: &amp;UJUEL D. COPER&amp;U
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUS&amp;UA
+                                             OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -10787,8 +11303,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10857,21 +11373,23 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
       <c r="K3" s="33">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="42" t="str">
+        <v>4</v>
+      </c>
+      <c r="L3" s="42">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
+        <v>1.083</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -10879,7 +11397,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>28</v>
@@ -10904,7 +11422,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>512</v>
+        <v>411.66600000000005</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
